--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q234"/>
+  <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>1</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>2</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>2</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>1</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,63 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1211</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1263.849975585938</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E235" t="n">
+        <v>1220.199951171875</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1220.199951171875</v>
+      </c>
+      <c r="G235" t="n">
+        <v>284964</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I235" t="n">
+        <v>6</v>
+      </c>
+      <c r="J235" t="n">
+        <v>3</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>23</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -13629,7 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
-      <c r="R235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q239"/>
+  <dimension ref="A1:R244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>1</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>2</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>0</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>2</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>1</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>2</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,279 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1269.650024414062</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1309.150024414062</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1250.25</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1278.099975585938</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1278.099975585938</v>
+      </c>
+      <c r="G240" t="n">
+        <v>313883</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I240" t="n">
+        <v>6</v>
+      </c>
+      <c r="J240" t="n">
+        <v>10</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>24</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1280.800048828125</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1288.800048828125</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1234.949951171875</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1234.949951171875</v>
+      </c>
+      <c r="G241" t="n">
+        <v>280347</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I241" t="n">
+        <v>6</v>
+      </c>
+      <c r="J241" t="n">
+        <v>11</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>24</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1274</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1222.050048828125</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1256.650024414062</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1256.650024414062</v>
+      </c>
+      <c r="G242" t="n">
+        <v>222017</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I242" t="n">
+        <v>6</v>
+      </c>
+      <c r="J242" t="n">
+        <v>12</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>24</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1256.650024414062</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1268.349975585938</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1219.400024414062</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1226.800048828125</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1226.800048828125</v>
+      </c>
+      <c r="G243" t="n">
+        <v>142466</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I243" t="n">
+        <v>6</v>
+      </c>
+      <c r="J243" t="n">
+        <v>13</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>24</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1239</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1248.75</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1216.599975585938</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1220.199951171875</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1220.199951171875</v>
+      </c>
+      <c r="G244" t="n">
+        <v>299805</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I244" t="n">
+        <v>6</v>
+      </c>
+      <c r="J244" t="n">
+        <v>14</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>24</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -13909,7 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
-      <c r="R240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13963,7 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
-      <c r="R241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -14017,7 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
-      <c r="R242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -14071,7 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
-      <c r="R243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -14125,7 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
-      <c r="R244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R244"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14137,6 +14137,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1232</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1254.949951171875</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1157</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1165</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1165</v>
+      </c>
+      <c r="G245" t="n">
+        <v>4368274</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I245" t="n">
+        <v>6</v>
+      </c>
+      <c r="J245" t="n">
+        <v>18</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>25</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13677,7 +13677,7 @@
         <v>23</v>
       </c>
       <c r="O236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P236" t="n">
         <v>0</v>
@@ -14189,7 +14189,63 @@
       <c r="Q245" t="n">
         <v>0</v>
       </c>
-      <c r="R245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1173</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1190</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1143</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1148.75</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1148.75</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1515109</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I246" t="n">
+        <v>6</v>
+      </c>
+      <c r="J246" t="n">
+        <v>19</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>25</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R246"/>
+  <dimension ref="A1:R253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13901,7 +13901,7 @@
         <v>24</v>
       </c>
       <c r="O240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P240" t="n">
         <v>0</v>
@@ -14245,7 +14245,387 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
-      <c r="R246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1158.699951171875</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1166.199951171875</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1145.050048828125</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1155.599975585938</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1147.783325195312</v>
+      </c>
+      <c r="G247" t="n">
+        <v>618417</v>
+      </c>
+      <c r="H247" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I247" t="n">
+        <v>6</v>
+      </c>
+      <c r="J247" t="n">
+        <v>20</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>25</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1178.050048828125</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1156.849975585938</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1149.02490234375</v>
+      </c>
+      <c r="G248" t="n">
+        <v>527597</v>
+      </c>
+      <c r="H248" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I248" t="n">
+        <v>6</v>
+      </c>
+      <c r="J248" t="n">
+        <v>21</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>25</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1156.849975585938</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1150.25</v>
+      </c>
+      <c r="E249" t="n">
+        <v>1173.349975585938</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1165.413208007812</v>
+      </c>
+      <c r="G249" t="n">
+        <v>544855</v>
+      </c>
+      <c r="H249" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I249" t="n">
+        <v>6</v>
+      </c>
+      <c r="J249" t="n">
+        <v>24</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>26</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1213</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1160.099975585938</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1184.300048828125</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1176.289184570312</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1365039</v>
+      </c>
+      <c r="H250" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I250" t="n">
+        <v>6</v>
+      </c>
+      <c r="J250" t="n">
+        <v>25</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>26</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1196.849975585938</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1167.300048828125</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1189.400024414062</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1181.354736328125</v>
+      </c>
+      <c r="G251" t="n">
+        <v>477864</v>
+      </c>
+      <c r="H251" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I251" t="n">
+        <v>6</v>
+      </c>
+      <c r="J251" t="n">
+        <v>26</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>26</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>2</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1158.050048828125</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1182.699951171875</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1174.699951171875</v>
+      </c>
+      <c r="G252" t="n">
+        <v>483482</v>
+      </c>
+      <c r="H252" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I252" t="n">
+        <v>6</v>
+      </c>
+      <c r="J252" t="n">
+        <v>27</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>26</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1174.050048828125</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1188</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1163</v>
+      </c>
+      <c r="E253" t="n">
+        <v>1175.699951171875</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1175.699951171875</v>
+      </c>
+      <c r="G253" t="n">
+        <v>362268</v>
+      </c>
+      <c r="H253" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I253" t="n">
+        <v>6</v>
+      </c>
+      <c r="J253" t="n">
+        <v>28</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>26</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -14301,7 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
-      <c r="R247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -14355,7 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
-      <c r="R248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -14409,7 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
-      <c r="R249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -14463,7 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
-      <c r="R250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -14517,7 +14525,9 @@
       <c r="Q251" t="n">
         <v>2</v>
       </c>
-      <c r="R251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -14571,7 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
-      <c r="R252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -14625,7 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
-      <c r="R253" t="inlineStr"/>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R253"/>
+  <dimension ref="A1:R258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14641,6 +14641,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1179.900024414062</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1169.449951171875</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1169.449951171875</v>
+      </c>
+      <c r="G254" t="n">
+        <v>590427</v>
+      </c>
+      <c r="H254" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I254" t="n">
+        <v>7</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>27</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1173.849975585938</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1223.300048828125</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1162</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1212.150024414062</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1212.150024414062</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1384320</v>
+      </c>
+      <c r="H255" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I255" t="n">
+        <v>7</v>
+      </c>
+      <c r="J255" t="n">
+        <v>2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>27</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1252.800048828125</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1201.400024414062</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1245.349975585938</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1245.349975585938</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1061244</v>
+      </c>
+      <c r="H256" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I256" t="n">
+        <v>7</v>
+      </c>
+      <c r="J256" t="n">
+        <v>3</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>27</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1245.400024414062</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1256.449951171875</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1216.800048828125</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1228.25</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1228.25</v>
+      </c>
+      <c r="G257" t="n">
+        <v>353152</v>
+      </c>
+      <c r="H257" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I257" t="n">
+        <v>7</v>
+      </c>
+      <c r="J257" t="n">
+        <v>4</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>27</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1224.900024414062</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1237</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1212.650024414062</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1228</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1228</v>
+      </c>
+      <c r="G258" t="n">
+        <v>172602</v>
+      </c>
+      <c r="H258" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I258" t="n">
+        <v>7</v>
+      </c>
+      <c r="J258" t="n">
+        <v>5</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>27</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R258"/>
+  <dimension ref="A1:R267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14693,7 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
-      <c r="R254" t="inlineStr"/>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -14747,7 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
-      <c r="R255" t="inlineStr"/>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14801,7 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
-      <c r="R256" t="inlineStr"/>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14855,7 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
-      <c r="R257" t="inlineStr"/>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14909,7 +14917,495 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
-      <c r="R258" t="inlineStr"/>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1237.949951171875</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1284.699951171875</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1229.949951171875</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1272.650024414062</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1272.650024414062</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1494325</v>
+      </c>
+      <c r="H259" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I259" t="n">
+        <v>7</v>
+      </c>
+      <c r="J259" t="n">
+        <v>8</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>28</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1284.949951171875</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1311.949951171875</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1262.25</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1303.599975585938</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1303.599975585938</v>
+      </c>
+      <c r="G260" t="n">
+        <v>793543</v>
+      </c>
+      <c r="H260" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I260" t="n">
+        <v>7</v>
+      </c>
+      <c r="J260" t="n">
+        <v>9</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>28</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1316</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1384.949951171875</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1290.849975585938</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1345.5</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1345.5</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1700753</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I261" t="n">
+        <v>7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>10</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>28</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1389.900024414062</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1410</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1356.050048828125</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1393.449951171875</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1393.449951171875</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1604466</v>
+      </c>
+      <c r="H262" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I262" t="n">
+        <v>7</v>
+      </c>
+      <c r="J262" t="n">
+        <v>11</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>28</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1402.949951171875</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1402.949951171875</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1346</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1357.699951171875</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1357.699951171875</v>
+      </c>
+      <c r="G263" t="n">
+        <v>414763</v>
+      </c>
+      <c r="H263" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I263" t="n">
+        <v>7</v>
+      </c>
+      <c r="J263" t="n">
+        <v>12</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>28</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1375.449951171875</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1326</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1330.650024414062</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1330.650024414062</v>
+      </c>
+      <c r="G264" t="n">
+        <v>308066</v>
+      </c>
+      <c r="H264" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I264" t="n">
+        <v>7</v>
+      </c>
+      <c r="J264" t="n">
+        <v>15</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>29</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1326</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1341.25</v>
+      </c>
+      <c r="D265" t="n">
+        <v>1294.900024414062</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1327.199951171875</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1327.199951171875</v>
+      </c>
+      <c r="G265" t="n">
+        <v>443439</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I265" t="n">
+        <v>7</v>
+      </c>
+      <c r="J265" t="n">
+        <v>16</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>29</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1334.949951171875</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1304</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1316.699951171875</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1316.699951171875</v>
+      </c>
+      <c r="G266" t="n">
+        <v>496841</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I266" t="n">
+        <v>7</v>
+      </c>
+      <c r="J266" t="n">
+        <v>18</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>29</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1344.900024414062</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1427.849975585938</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1304.599975585938</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1336.300048828125</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1336.300048828125</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1748106</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I267" t="n">
+        <v>7</v>
+      </c>
+      <c r="J267" t="n">
+        <v>19</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>29</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R267"/>
+  <dimension ref="A1:R277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14973,7 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
-      <c r="R259" t="inlineStr"/>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -15027,7 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
-      <c r="R260" t="inlineStr"/>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -15081,7 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
-      <c r="R261" t="inlineStr"/>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -15135,7 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
-      <c r="R262" t="inlineStr"/>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -15189,7 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
-      <c r="R263" t="inlineStr"/>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -15243,7 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
-      <c r="R264" t="inlineStr"/>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -15297,7 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
-      <c r="R265" t="inlineStr"/>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -15351,7 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
-      <c r="R266" t="inlineStr"/>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -15397,7 +15413,7 @@
         <v>29</v>
       </c>
       <c r="O267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P267" t="n">
         <v>0</v>
@@ -15405,7 +15421,549 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
-      <c r="R267" t="inlineStr"/>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1341.400024414062</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1363.599975585938</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1307</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1316</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1316</v>
+      </c>
+      <c r="G268" t="n">
+        <v>297332</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I268" t="n">
+        <v>7</v>
+      </c>
+      <c r="J268" t="n">
+        <v>22</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>30</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1313</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1346.650024414062</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1281</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1281</v>
+      </c>
+      <c r="G269" t="n">
+        <v>302432</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I269" t="n">
+        <v>7</v>
+      </c>
+      <c r="J269" t="n">
+        <v>23</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>30</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1293</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1337.199951171875</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1285</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1329.400024414062</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1329.400024414062</v>
+      </c>
+      <c r="G270" t="n">
+        <v>199929</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I270" t="n">
+        <v>7</v>
+      </c>
+      <c r="J270" t="n">
+        <v>24</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>30</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1329</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1344.199951171875</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1312.5</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1320.300048828125</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1320.300048828125</v>
+      </c>
+      <c r="G271" t="n">
+        <v>118015</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I271" t="n">
+        <v>7</v>
+      </c>
+      <c r="J271" t="n">
+        <v>25</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>30</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1320.300048828125</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1369.699951171875</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1320.300048828125</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1361.150024414062</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1361.150024414062</v>
+      </c>
+      <c r="G272" t="n">
+        <v>252602</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I272" t="n">
+        <v>7</v>
+      </c>
+      <c r="J272" t="n">
+        <v>26</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>30</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1395.699951171875</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1338.349975585938</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1355.849975585938</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1355.849975585938</v>
+      </c>
+      <c r="G273" t="n">
+        <v>175578</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I273" t="n">
+        <v>7</v>
+      </c>
+      <c r="J273" t="n">
+        <v>29</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>31</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1301</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1355.099975585938</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1325.949951171875</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1325.949951171875</v>
+      </c>
+      <c r="G274" t="n">
+        <v>491933</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I274" t="n">
+        <v>7</v>
+      </c>
+      <c r="J274" t="n">
+        <v>30</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>31</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1329.900024414062</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1379.699951171875</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1370.949951171875</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1370.949951171875</v>
+      </c>
+      <c r="G275" t="n">
+        <v>644642</v>
+      </c>
+      <c r="H275" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I275" t="n">
+        <v>7</v>
+      </c>
+      <c r="J275" t="n">
+        <v>31</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>31</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1370.949951171875</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1374.300048828125</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1342.099975585938</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1363.199951171875</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1363.199951171875</v>
+      </c>
+      <c r="G276" t="n">
+        <v>305543</v>
+      </c>
+      <c r="H276" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I276" t="n">
+        <v>8</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>31</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1325.050048828125</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1350.949951171875</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1350.949951171875</v>
+      </c>
+      <c r="G277" t="n">
+        <v>205621</v>
+      </c>
+      <c r="H277" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I277" t="n">
+        <v>8</v>
+      </c>
+      <c r="J277" t="n">
+        <v>2</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>31</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R277"/>
+  <dimension ref="A1:R282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15477,7 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
-      <c r="R268" t="inlineStr"/>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -15531,7 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
-      <c r="R269" t="inlineStr"/>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -15585,7 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
-      <c r="R270" t="inlineStr"/>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -15639,7 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
-      <c r="R271" t="inlineStr"/>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -15693,7 +15701,9 @@
       <c r="Q272" t="n">
         <v>0</v>
       </c>
-      <c r="R272" t="inlineStr"/>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -15747,7 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
-      <c r="R273" t="inlineStr"/>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -15801,7 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
-      <c r="R274" t="inlineStr"/>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15855,7 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
-      <c r="R275" t="inlineStr"/>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15909,7 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
-      <c r="R276" t="inlineStr"/>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15963,7 +15981,279 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
-      <c r="R277" t="inlineStr"/>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1271.050048828125</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1236.199951171875</v>
+      </c>
+      <c r="E278" t="n">
+        <v>1255.400024414062</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1255.400024414062</v>
+      </c>
+      <c r="G278" t="n">
+        <v>301421</v>
+      </c>
+      <c r="H278" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I278" t="n">
+        <v>8</v>
+      </c>
+      <c r="J278" t="n">
+        <v>5</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>32</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1253.599975585938</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1280</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1190.800048828125</v>
+      </c>
+      <c r="E279" t="n">
+        <v>1204.75</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1204.75</v>
+      </c>
+      <c r="G279" t="n">
+        <v>290273</v>
+      </c>
+      <c r="H279" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I279" t="n">
+        <v>8</v>
+      </c>
+      <c r="J279" t="n">
+        <v>6</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>32</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1229</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1239.900024414062</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1189</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1233.75</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1233.75</v>
+      </c>
+      <c r="G280" t="n">
+        <v>272295</v>
+      </c>
+      <c r="H280" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I280" t="n">
+        <v>8</v>
+      </c>
+      <c r="J280" t="n">
+        <v>7</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>32</v>
+      </c>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1232.75</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1259.25</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1222.949951171875</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1244.75</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1244.75</v>
+      </c>
+      <c r="G281" t="n">
+        <v>359283</v>
+      </c>
+      <c r="H281" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I281" t="n">
+        <v>8</v>
+      </c>
+      <c r="J281" t="n">
+        <v>8</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>32</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1253.550048828125</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1260.849975585938</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1240.949951171875</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1240.949951171875</v>
+      </c>
+      <c r="G282" t="n">
+        <v>89521</v>
+      </c>
+      <c r="H282" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I282" t="n">
+        <v>8</v>
+      </c>
+      <c r="J282" t="n">
+        <v>9</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>32</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R282"/>
+  <dimension ref="A1:R286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16037,7 +16037,9 @@
       <c r="Q278" t="n">
         <v>2</v>
       </c>
-      <c r="R278" t="inlineStr"/>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -16091,7 +16093,9 @@
       <c r="Q279" t="n">
         <v>0</v>
       </c>
-      <c r="R279" t="inlineStr"/>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -16145,7 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
-      <c r="R280" t="inlineStr"/>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -16199,7 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
-      <c r="R281" t="inlineStr"/>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -16253,7 +16261,225 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
-      <c r="R282" t="inlineStr"/>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1222.099975585938</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1244.25</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1212</v>
+      </c>
+      <c r="E283" t="n">
+        <v>1238.099975585938</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1238.099975585938</v>
+      </c>
+      <c r="G283" t="n">
+        <v>96653</v>
+      </c>
+      <c r="H283" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I283" t="n">
+        <v>8</v>
+      </c>
+      <c r="J283" t="n">
+        <v>12</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>33</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1238.050048828125</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1269.900024414062</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1230.050048828125</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1252.699951171875</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1252.699951171875</v>
+      </c>
+      <c r="G284" t="n">
+        <v>348846</v>
+      </c>
+      <c r="H284" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I284" t="n">
+        <v>8</v>
+      </c>
+      <c r="J284" t="n">
+        <v>13</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>33</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1249</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1249.449951171875</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1230.449951171875</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1230.449951171875</v>
+      </c>
+      <c r="G285" t="n">
+        <v>136957</v>
+      </c>
+      <c r="H285" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I285" t="n">
+        <v>8</v>
+      </c>
+      <c r="J285" t="n">
+        <v>14</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>33</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1239</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1210.75</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1221.150024414062</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1221.150024414062</v>
+      </c>
+      <c r="G286" t="n">
+        <v>162011</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I286" t="n">
+        <v>8</v>
+      </c>
+      <c r="J286" t="n">
+        <v>16</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>33</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R286"/>
+  <dimension ref="A1:R291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16141,7 +16141,7 @@
         <v>32</v>
       </c>
       <c r="O280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P280" t="n">
         <v>0</v>
@@ -16317,7 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
-      <c r="R283" t="inlineStr"/>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -16371,7 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
-      <c r="R284" t="inlineStr"/>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -16425,7 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
-      <c r="R285" t="inlineStr"/>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -16479,7 +16485,279 @@
       <c r="Q286" t="n">
         <v>0</v>
       </c>
-      <c r="R286" t="inlineStr"/>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1226.150024414062</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1265.650024414062</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1208</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1231.900024414062</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1231.900024414062</v>
+      </c>
+      <c r="G287" t="n">
+        <v>240103</v>
+      </c>
+      <c r="H287" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I287" t="n">
+        <v>8</v>
+      </c>
+      <c r="J287" t="n">
+        <v>19</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>34</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1234</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1217.599975585938</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1217.599975585938</v>
+      </c>
+      <c r="G288" t="n">
+        <v>455131</v>
+      </c>
+      <c r="H288" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I288" t="n">
+        <v>8</v>
+      </c>
+      <c r="J288" t="n">
+        <v>20</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>34</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1219.650024414062</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1260.949951171875</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1214.949951171875</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1239.599975585938</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1239.599975585938</v>
+      </c>
+      <c r="G289" t="n">
+        <v>217622</v>
+      </c>
+      <c r="H289" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I289" t="n">
+        <v>8</v>
+      </c>
+      <c r="J289" t="n">
+        <v>21</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>34</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1239.599975585938</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1259.900024414062</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1224</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1251.949951171875</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1251.949951171875</v>
+      </c>
+      <c r="G290" t="n">
+        <v>279271</v>
+      </c>
+      <c r="H290" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I290" t="n">
+        <v>8</v>
+      </c>
+      <c r="J290" t="n">
+        <v>22</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>34</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1260.900024414062</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1317.349975585938</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1298.25</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1298.25</v>
+      </c>
+      <c r="G291" t="n">
+        <v>770174</v>
+      </c>
+      <c r="H291" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I291" t="n">
+        <v>8</v>
+      </c>
+      <c r="J291" t="n">
+        <v>23</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>34</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R291"/>
+  <dimension ref="A1:R295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16541,7 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
-      <c r="R287" t="inlineStr"/>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -16595,7 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
-      <c r="R288" t="inlineStr"/>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -16649,7 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
-      <c r="R289" t="inlineStr"/>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -16703,7 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
-      <c r="R290" t="inlineStr"/>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -16757,7 +16765,225 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
-      <c r="R291" t="inlineStr"/>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1327</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1275.550048828125</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1307.099975585938</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1307.099975585938</v>
+      </c>
+      <c r="G292" t="n">
+        <v>163398</v>
+      </c>
+      <c r="H292" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I292" t="n">
+        <v>8</v>
+      </c>
+      <c r="J292" t="n">
+        <v>26</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>35</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1330.050048828125</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1354</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1337.599975585938</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1337.599975585938</v>
+      </c>
+      <c r="G293" t="n">
+        <v>129786</v>
+      </c>
+      <c r="H293" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I293" t="n">
+        <v>8</v>
+      </c>
+      <c r="J293" t="n">
+        <v>28</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>35</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1335.050048828125</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1339.900024414062</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1329.599975585938</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1329.599975585938</v>
+      </c>
+      <c r="G294" t="n">
+        <v>108280</v>
+      </c>
+      <c r="H294" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I294" t="n">
+        <v>8</v>
+      </c>
+      <c r="J294" t="n">
+        <v>29</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>35</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1324.949951171875</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1370.949951171875</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1307</v>
+      </c>
+      <c r="E295" t="n">
+        <v>1347.550048828125</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1347.550048828125</v>
+      </c>
+      <c r="G295" t="n">
+        <v>325026</v>
+      </c>
+      <c r="H295" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I295" t="n">
+        <v>8</v>
+      </c>
+      <c r="J295" t="n">
+        <v>30</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>35</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R295"/>
+  <dimension ref="A1:R300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16821,7 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
-      <c r="R292" t="inlineStr"/>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -16875,7 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
-      <c r="R293" t="inlineStr"/>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16929,7 +16933,9 @@
       <c r="Q294" t="n">
         <v>0</v>
       </c>
-      <c r="R294" t="inlineStr"/>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16983,7 +16989,279 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
-      <c r="R295" t="inlineStr"/>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1416.75</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1357.550048828125</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1385.099975585938</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1385.099975585938</v>
+      </c>
+      <c r="G296" t="n">
+        <v>620085</v>
+      </c>
+      <c r="H296" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I296" t="n">
+        <v>9</v>
+      </c>
+      <c r="J296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>36</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1392.150024414062</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1399.5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1375.699951171875</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1395.099975585938</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1395.099975585938</v>
+      </c>
+      <c r="G297" t="n">
+        <v>260823</v>
+      </c>
+      <c r="H297" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I297" t="n">
+        <v>9</v>
+      </c>
+      <c r="J297" t="n">
+        <v>3</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>36</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1395</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1425.150024414062</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1373</v>
+      </c>
+      <c r="E298" t="n">
+        <v>1400.050048828125</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1400.050048828125</v>
+      </c>
+      <c r="G298" t="n">
+        <v>590672</v>
+      </c>
+      <c r="H298" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I298" t="n">
+        <v>9</v>
+      </c>
+      <c r="J298" t="n">
+        <v>4</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>36</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1414</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1414.949951171875</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1381</v>
+      </c>
+      <c r="E299" t="n">
+        <v>1398.699951171875</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1398.699951171875</v>
+      </c>
+      <c r="G299" t="n">
+        <v>225775</v>
+      </c>
+      <c r="H299" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I299" t="n">
+        <v>9</v>
+      </c>
+      <c r="J299" t="n">
+        <v>5</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>36</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1449</v>
+      </c>
+      <c r="D300" t="n">
+        <v>1390.099975585938</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1397.900024414062</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1397.900024414062</v>
+      </c>
+      <c r="G300" t="n">
+        <v>484735</v>
+      </c>
+      <c r="H300" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I300" t="n">
+        <v>9</v>
+      </c>
+      <c r="J300" t="n">
+        <v>6</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>36</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R300"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17045,7 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
-      <c r="R296" t="inlineStr"/>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -17099,7 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
-      <c r="R297" t="inlineStr"/>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -17153,7 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
-      <c r="R298" t="inlineStr"/>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -17207,7 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
-      <c r="R299" t="inlineStr"/>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -17261,7 +17269,279 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
-      <c r="R300" t="inlineStr"/>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1398.900024414062</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1404.449951171875</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1362.449951171875</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1367.099975585938</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1367.099975585938</v>
+      </c>
+      <c r="G301" t="n">
+        <v>104839</v>
+      </c>
+      <c r="H301" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I301" t="n">
+        <v>9</v>
+      </c>
+      <c r="J301" t="n">
+        <v>9</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>37</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1372.150024414062</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1404.550048828125</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1372.150024414062</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1386.099975585938</v>
+      </c>
+      <c r="F302" t="n">
+        <v>1386.099975585938</v>
+      </c>
+      <c r="G302" t="n">
+        <v>161652</v>
+      </c>
+      <c r="H302" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I302" t="n">
+        <v>9</v>
+      </c>
+      <c r="J302" t="n">
+        <v>10</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>37</v>
+      </c>
+      <c r="O302" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1386.199951171875</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1392.949951171875</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1342.599975585938</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1355.75</v>
+      </c>
+      <c r="F303" t="n">
+        <v>1355.75</v>
+      </c>
+      <c r="G303" t="n">
+        <v>100647</v>
+      </c>
+      <c r="H303" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I303" t="n">
+        <v>9</v>
+      </c>
+      <c r="J303" t="n">
+        <v>11</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>37</v>
+      </c>
+      <c r="O303" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1380.349975585938</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1340</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1373.650024414062</v>
+      </c>
+      <c r="F304" t="n">
+        <v>1373.650024414062</v>
+      </c>
+      <c r="G304" t="n">
+        <v>480705</v>
+      </c>
+      <c r="H304" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I304" t="n">
+        <v>9</v>
+      </c>
+      <c r="J304" t="n">
+        <v>12</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>37</v>
+      </c>
+      <c r="O304" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1386.550048828125</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1397</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1377</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1380.800048828125</v>
+      </c>
+      <c r="F305" t="n">
+        <v>1380.800048828125</v>
+      </c>
+      <c r="G305" t="n">
+        <v>89543</v>
+      </c>
+      <c r="H305" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I305" t="n">
+        <v>9</v>
+      </c>
+      <c r="J305" t="n">
+        <v>13</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>37</v>
+      </c>
+      <c r="O305" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R305"/>
+  <dimension ref="A1:R310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17261,7 +17261,7 @@
         <v>36</v>
       </c>
       <c r="O300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P300" t="n">
         <v>0</v>
@@ -17325,7 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
-      <c r="R301" t="inlineStr"/>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -17379,7 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
-      <c r="R302" t="inlineStr"/>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -17433,7 +17437,9 @@
       <c r="Q303" t="n">
         <v>0</v>
       </c>
-      <c r="R303" t="inlineStr"/>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -17487,7 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
-      <c r="R304" t="inlineStr"/>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -17541,7 +17549,279 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
-      <c r="R305" t="inlineStr"/>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1391</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1404.900024414062</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1365.550048828125</v>
+      </c>
+      <c r="E306" t="n">
+        <v>1394.349975585938</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1394.349975585938</v>
+      </c>
+      <c r="G306" t="n">
+        <v>72589</v>
+      </c>
+      <c r="H306" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I306" t="n">
+        <v>9</v>
+      </c>
+      <c r="J306" t="n">
+        <v>16</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>38</v>
+      </c>
+      <c r="O306" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1396.099975585938</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1408</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1371.349975585938</v>
+      </c>
+      <c r="E307" t="n">
+        <v>1398.949951171875</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1398.949951171875</v>
+      </c>
+      <c r="G307" t="n">
+        <v>112454</v>
+      </c>
+      <c r="H307" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I307" t="n">
+        <v>9</v>
+      </c>
+      <c r="J307" t="n">
+        <v>17</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>38</v>
+      </c>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1408.599975585938</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1408.599975585938</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1371</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1378.300048828125</v>
+      </c>
+      <c r="F308" t="n">
+        <v>1378.300048828125</v>
+      </c>
+      <c r="G308" t="n">
+        <v>49533</v>
+      </c>
+      <c r="H308" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I308" t="n">
+        <v>9</v>
+      </c>
+      <c r="J308" t="n">
+        <v>18</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>38</v>
+      </c>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1384</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1395.699951171875</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1330.599975585938</v>
+      </c>
+      <c r="E309" t="n">
+        <v>1374.300048828125</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1374.300048828125</v>
+      </c>
+      <c r="G309" t="n">
+        <v>191325</v>
+      </c>
+      <c r="H309" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I309" t="n">
+        <v>9</v>
+      </c>
+      <c r="J309" t="n">
+        <v>19</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>38</v>
+      </c>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1386.5</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1328.400024414062</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1335.050048828125</v>
+      </c>
+      <c r="F310" t="n">
+        <v>1335.050048828125</v>
+      </c>
+      <c r="G310" t="n">
+        <v>260909</v>
+      </c>
+      <c r="H310" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I310" t="n">
+        <v>9</v>
+      </c>
+      <c r="J310" t="n">
+        <v>20</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>38</v>
+      </c>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R310"/>
+  <dimension ref="A1:R315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17605,7 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
-      <c r="R306" t="inlineStr"/>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -17659,7 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
-      <c r="R307" t="inlineStr"/>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -17713,7 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
-      <c r="R308" t="inlineStr"/>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -17767,7 +17773,9 @@
       <c r="Q309" t="n">
         <v>0</v>
       </c>
-      <c r="R309" t="inlineStr"/>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -17821,7 +17829,279 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
-      <c r="R310" t="inlineStr"/>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1355.550048828125</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1322</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1326.449951171875</v>
+      </c>
+      <c r="F311" t="n">
+        <v>1326.449951171875</v>
+      </c>
+      <c r="G311" t="n">
+        <v>96083</v>
+      </c>
+      <c r="H311" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I311" t="n">
+        <v>9</v>
+      </c>
+      <c r="J311" t="n">
+        <v>23</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>39</v>
+      </c>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1329.050048828125</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1341</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1293.400024414062</v>
+      </c>
+      <c r="E312" t="n">
+        <v>1306.300048828125</v>
+      </c>
+      <c r="F312" t="n">
+        <v>1306.300048828125</v>
+      </c>
+      <c r="G312" t="n">
+        <v>245413</v>
+      </c>
+      <c r="H312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I312" t="n">
+        <v>9</v>
+      </c>
+      <c r="J312" t="n">
+        <v>24</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>39</v>
+      </c>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1337</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1287.25</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1331.150024414062</v>
+      </c>
+      <c r="F313" t="n">
+        <v>1331.150024414062</v>
+      </c>
+      <c r="G313" t="n">
+        <v>254218</v>
+      </c>
+      <c r="H313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I313" t="n">
+        <v>9</v>
+      </c>
+      <c r="J313" t="n">
+        <v>25</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>39</v>
+      </c>
+      <c r="O313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1322</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1348.400024414062</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1315</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1321.050048828125</v>
+      </c>
+      <c r="F314" t="n">
+        <v>1321.050048828125</v>
+      </c>
+      <c r="G314" t="n">
+        <v>154543</v>
+      </c>
+      <c r="H314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I314" t="n">
+        <v>9</v>
+      </c>
+      <c r="J314" t="n">
+        <v>26</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>39</v>
+      </c>
+      <c r="O314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1333.150024414062</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1438.050048828125</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1310.400024414062</v>
+      </c>
+      <c r="E315" t="n">
+        <v>1407.550048828125</v>
+      </c>
+      <c r="F315" t="n">
+        <v>1407.550048828125</v>
+      </c>
+      <c r="G315" t="n">
+        <v>397624</v>
+      </c>
+      <c r="H315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I315" t="n">
+        <v>9</v>
+      </c>
+      <c r="J315" t="n">
+        <v>27</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>39</v>
+      </c>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R315"/>
+  <dimension ref="A1:R319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17885,7 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
-      <c r="R311" t="inlineStr"/>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17939,7 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
-      <c r="R312" t="inlineStr"/>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17993,7 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
-      <c r="R313" t="inlineStr"/>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -18047,7 +18053,9 @@
       <c r="Q314" t="n">
         <v>0</v>
       </c>
-      <c r="R314" t="inlineStr"/>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -18101,7 +18109,225 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
-      <c r="R315" t="inlineStr"/>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1407.449951171875</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1355.900024414062</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1367.25</v>
+      </c>
+      <c r="F316" t="n">
+        <v>1367.25</v>
+      </c>
+      <c r="G316" t="n">
+        <v>392677</v>
+      </c>
+      <c r="H316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I316" t="n">
+        <v>9</v>
+      </c>
+      <c r="J316" t="n">
+        <v>30</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>40</v>
+      </c>
+      <c r="O316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1393</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1426.949951171875</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1342</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1349.199951171875</v>
+      </c>
+      <c r="F317" t="n">
+        <v>1349.199951171875</v>
+      </c>
+      <c r="G317" t="n">
+        <v>788761</v>
+      </c>
+      <c r="H317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I317" t="n">
+        <v>10</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>40</v>
+      </c>
+      <c r="O317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1342.300048828125</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1310.099975585938</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1313.800048828125</v>
+      </c>
+      <c r="F318" t="n">
+        <v>1313.800048828125</v>
+      </c>
+      <c r="G318" t="n">
+        <v>195787</v>
+      </c>
+      <c r="H318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I318" t="n">
+        <v>10</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>40</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1314.900024414062</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1360</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1269.550048828125</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1347.900024414062</v>
+      </c>
+      <c r="F319" t="n">
+        <v>1347.900024414062</v>
+      </c>
+      <c r="G319" t="n">
+        <v>195355</v>
+      </c>
+      <c r="H319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I319" t="n">
+        <v>10</v>
+      </c>
+      <c r="J319" t="n">
+        <v>4</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>40</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R319"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18165,7 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
-      <c r="R316" t="inlineStr"/>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -18219,7 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
-      <c r="R317" t="inlineStr"/>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -18273,7 +18277,9 @@
       <c r="Q318" t="n">
         <v>0</v>
       </c>
-      <c r="R318" t="inlineStr"/>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -18327,7 +18333,279 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
-      <c r="R319" t="inlineStr"/>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1357.75</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1359.699951171875</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1279.25</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1305.699951171875</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1305.699951171875</v>
+      </c>
+      <c r="G320" t="n">
+        <v>238849</v>
+      </c>
+      <c r="H320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I320" t="n">
+        <v>10</v>
+      </c>
+      <c r="J320" t="n">
+        <v>7</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>41</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1286.099975585938</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1337.949951171875</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1278.5</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1323.550048828125</v>
+      </c>
+      <c r="F321" t="n">
+        <v>1323.550048828125</v>
+      </c>
+      <c r="G321" t="n">
+        <v>234388</v>
+      </c>
+      <c r="H321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I321" t="n">
+        <v>10</v>
+      </c>
+      <c r="J321" t="n">
+        <v>8</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>41</v>
+      </c>
+      <c r="O321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1340</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1364.300048828125</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1320</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1323.75</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1323.75</v>
+      </c>
+      <c r="G322" t="n">
+        <v>178568</v>
+      </c>
+      <c r="H322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I322" t="n">
+        <v>10</v>
+      </c>
+      <c r="J322" t="n">
+        <v>9</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>41</v>
+      </c>
+      <c r="O322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1313.099975585938</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1323.050048828125</v>
+      </c>
+      <c r="F323" t="n">
+        <v>1323.050048828125</v>
+      </c>
+      <c r="G323" t="n">
+        <v>671292</v>
+      </c>
+      <c r="H323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I323" t="n">
+        <v>10</v>
+      </c>
+      <c r="J323" t="n">
+        <v>10</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>41</v>
+      </c>
+      <c r="O323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1312.199951171875</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1330.099975585938</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1308.5</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1320.050048828125</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1320.050048828125</v>
+      </c>
+      <c r="G324" t="n">
+        <v>73939</v>
+      </c>
+      <c r="H324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I324" t="n">
+        <v>10</v>
+      </c>
+      <c r="J324" t="n">
+        <v>11</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>41</v>
+      </c>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R324"/>
+  <dimension ref="A1:R329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18101,7 +18101,7 @@
         <v>39</v>
       </c>
       <c r="O315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P315" t="n">
         <v>0</v>
@@ -18389,7 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
-      <c r="R320" t="inlineStr"/>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -18443,7 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
-      <c r="R321" t="inlineStr"/>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -18497,7 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
-      <c r="R322" t="inlineStr"/>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -18551,7 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
-      <c r="R323" t="inlineStr"/>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -18605,7 +18613,279 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
-      <c r="R324" t="inlineStr"/>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1320.050048828125</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1328</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1295.050048828125</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F325" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G325" t="n">
+        <v>80601</v>
+      </c>
+      <c r="H325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I325" t="n">
+        <v>10</v>
+      </c>
+      <c r="J325" t="n">
+        <v>14</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>42</v>
+      </c>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1313.699951171875</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1327</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1296.599975585938</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1300.949951171875</v>
+      </c>
+      <c r="F326" t="n">
+        <v>1300.949951171875</v>
+      </c>
+      <c r="G326" t="n">
+        <v>149822</v>
+      </c>
+      <c r="H326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I326" t="n">
+        <v>10</v>
+      </c>
+      <c r="J326" t="n">
+        <v>15</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>42</v>
+      </c>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1306.449951171875</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1282.650024414062</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1288.900024414062</v>
+      </c>
+      <c r="G327" t="n">
+        <v>144297</v>
+      </c>
+      <c r="H327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I327" t="n">
+        <v>10</v>
+      </c>
+      <c r="J327" t="n">
+        <v>16</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>42</v>
+      </c>
+      <c r="O327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1288</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1303</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1266.650024414062</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1299.25</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1299.25</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1238095</v>
+      </c>
+      <c r="H328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I328" t="n">
+        <v>10</v>
+      </c>
+      <c r="J328" t="n">
+        <v>17</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>42</v>
+      </c>
+      <c r="O328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1297.050048828125</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1337.900024414062</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1279</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1294.650024414062</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1294.650024414062</v>
+      </c>
+      <c r="G329" t="n">
+        <v>315260</v>
+      </c>
+      <c r="H329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10</v>
+      </c>
+      <c r="J329" t="n">
+        <v>18</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>42</v>
+      </c>
+      <c r="O329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R329"/>
+  <dimension ref="A1:R334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18669,7 +18669,9 @@
       <c r="Q325" t="n">
         <v>0</v>
       </c>
-      <c r="R325" t="inlineStr"/>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -18723,7 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
-      <c r="R326" t="inlineStr"/>
+      <c r="R326" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -18777,7 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
-      <c r="R327" t="inlineStr"/>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -18831,7 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
-      <c r="R328" t="inlineStr"/>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -18885,7 +18893,279 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
-      <c r="R329" t="inlineStr"/>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1303.5</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1270.099975585938</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1277.150024414062</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1277.150024414062</v>
+      </c>
+      <c r="G330" t="n">
+        <v>76839</v>
+      </c>
+      <c r="H330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I330" t="n">
+        <v>10</v>
+      </c>
+      <c r="J330" t="n">
+        <v>21</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>43</v>
+      </c>
+      <c r="O330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1273.349975585938</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1282.900024414062</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1231.150024414062</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1250.349975585938</v>
+      </c>
+      <c r="F331" t="n">
+        <v>1250.349975585938</v>
+      </c>
+      <c r="G331" t="n">
+        <v>92521</v>
+      </c>
+      <c r="H331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I331" t="n">
+        <v>10</v>
+      </c>
+      <c r="J331" t="n">
+        <v>22</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>43</v>
+      </c>
+      <c r="O331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1247.300048828125</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1210.150024414062</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1230.050048828125</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1230.050048828125</v>
+      </c>
+      <c r="G332" t="n">
+        <v>79873</v>
+      </c>
+      <c r="H332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I332" t="n">
+        <v>10</v>
+      </c>
+      <c r="J332" t="n">
+        <v>23</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>43</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1234.400024414062</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1241.949951171875</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1210.099975585938</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1216.099975585938</v>
+      </c>
+      <c r="F333" t="n">
+        <v>1216.099975585938</v>
+      </c>
+      <c r="G333" t="n">
+        <v>63402</v>
+      </c>
+      <c r="H333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I333" t="n">
+        <v>10</v>
+      </c>
+      <c r="J333" t="n">
+        <v>24</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>43</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1216.099975585938</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1222.449951171875</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1171.050048828125</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1183.650024414062</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1183.650024414062</v>
+      </c>
+      <c r="G334" t="n">
+        <v>114906</v>
+      </c>
+      <c r="H334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I334" t="n">
+        <v>10</v>
+      </c>
+      <c r="J334" t="n">
+        <v>25</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>43</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R334"/>
+  <dimension ref="A1:R338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18949,7 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
-      <c r="R330" t="inlineStr"/>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -19003,7 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
-      <c r="R331" t="inlineStr"/>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -19057,7 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
-      <c r="R332" t="inlineStr"/>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -19111,7 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
-      <c r="R333" t="inlineStr"/>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -19165,7 +19173,225 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
-      <c r="R334" t="inlineStr"/>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1166</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1156.5</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1178.150024414062</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1178.150024414062</v>
+      </c>
+      <c r="G335" t="n">
+        <v>90473</v>
+      </c>
+      <c r="H335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I335" t="n">
+        <v>10</v>
+      </c>
+      <c r="J335" t="n">
+        <v>28</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>44</v>
+      </c>
+      <c r="O335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1204.900024414062</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1264.849975585938</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1191.199951171875</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1241.599975585938</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1241.599975585938</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1134608</v>
+      </c>
+      <c r="H336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I336" t="n">
+        <v>10</v>
+      </c>
+      <c r="J336" t="n">
+        <v>29</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>44</v>
+      </c>
+      <c r="O336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1283</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1274.150024414062</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1274.150024414062</v>
+      </c>
+      <c r="G337" t="n">
+        <v>173632</v>
+      </c>
+      <c r="H337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I337" t="n">
+        <v>10</v>
+      </c>
+      <c r="J337" t="n">
+        <v>31</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>44</v>
+      </c>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1295.150024414062</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1317.550048828125</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1317.550048828125</v>
+      </c>
+      <c r="G338" t="n">
+        <v>12487</v>
+      </c>
+      <c r="H338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I338" t="n">
+        <v>11</v>
+      </c>
+      <c r="J338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>44</v>
+      </c>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R338"/>
+  <dimension ref="A1:R342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19229,7 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
-      <c r="R335" t="inlineStr"/>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -19283,7 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
-      <c r="R336" t="inlineStr"/>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -19337,7 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
-      <c r="R337" t="inlineStr"/>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -19391,7 +19397,225 @@
       <c r="Q338" t="n">
         <v>0</v>
       </c>
-      <c r="R338" t="inlineStr"/>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1289.050048828125</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1289.050048828125</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1259.699951171875</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1264.099975585938</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1264.099975585938</v>
+      </c>
+      <c r="G339" t="n">
+        <v>80980</v>
+      </c>
+      <c r="H339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I339" t="n">
+        <v>11</v>
+      </c>
+      <c r="J339" t="n">
+        <v>4</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>45</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1228.75</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1281.849975585938</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1222</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1276.349975585938</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1276.349975585938</v>
+      </c>
+      <c r="G340" t="n">
+        <v>188540</v>
+      </c>
+      <c r="H340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I340" t="n">
+        <v>11</v>
+      </c>
+      <c r="J340" t="n">
+        <v>6</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>45</v>
+      </c>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1260.449951171875</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1270.599975585938</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1270.599975585938</v>
+      </c>
+      <c r="G341" t="n">
+        <v>181461</v>
+      </c>
+      <c r="H341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I341" t="n">
+        <v>11</v>
+      </c>
+      <c r="J341" t="n">
+        <v>7</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>45</v>
+      </c>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1256</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1270.400024414062</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1241.050048828125</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1246.900024414062</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1246.900024414062</v>
+      </c>
+      <c r="G342" t="n">
+        <v>148180</v>
+      </c>
+      <c r="H342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I342" t="n">
+        <v>11</v>
+      </c>
+      <c r="J342" t="n">
+        <v>8</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>45</v>
+      </c>
+      <c r="O342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R342"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19221,7 +19221,7 @@
         <v>44</v>
       </c>
       <c r="O335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P335" t="n">
         <v>0</v>
@@ -19453,7 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
-      <c r="R339" t="inlineStr"/>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -19507,7 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
-      <c r="R340" t="inlineStr"/>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -19561,7 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
-      <c r="R341" t="inlineStr"/>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -19615,7 +19621,225 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
-      <c r="R342" t="inlineStr"/>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1266</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1221.900024414062</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1250</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G343" t="n">
+        <v>55447</v>
+      </c>
+      <c r="H343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I343" t="n">
+        <v>11</v>
+      </c>
+      <c r="J343" t="n">
+        <v>11</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>46</v>
+      </c>
+      <c r="O343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1262.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1270.75</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1235.050048828125</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1241.650024414062</v>
+      </c>
+      <c r="F344" t="n">
+        <v>1241.650024414062</v>
+      </c>
+      <c r="G344" t="n">
+        <v>64067</v>
+      </c>
+      <c r="H344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I344" t="n">
+        <v>11</v>
+      </c>
+      <c r="J344" t="n">
+        <v>12</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>46</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1257.900024414062</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1270.199951171875</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1180</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1186.699951171875</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1186.699951171875</v>
+      </c>
+      <c r="G345" t="n">
+        <v>201072</v>
+      </c>
+      <c r="H345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I345" t="n">
+        <v>11</v>
+      </c>
+      <c r="J345" t="n">
+        <v>13</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>46</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1208.050048828125</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1210.099975585938</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1183.900024414062</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1199</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1199</v>
+      </c>
+      <c r="G346" t="n">
+        <v>89785</v>
+      </c>
+      <c r="H346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I346" t="n">
+        <v>11</v>
+      </c>
+      <c r="J346" t="n">
+        <v>14</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>46</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19677,7 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
-      <c r="R343" t="inlineStr"/>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -19731,7 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
-      <c r="R344" t="inlineStr"/>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -19785,7 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
-      <c r="R345" t="inlineStr"/>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -19839,7 +19845,225 @@
       <c r="Q346" t="n">
         <v>0</v>
       </c>
-      <c r="R346" t="inlineStr"/>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1199.849975585938</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1217.800048828125</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1186.5</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1196.849975585938</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1196.849975585938</v>
+      </c>
+      <c r="G347" t="n">
+        <v>89433</v>
+      </c>
+      <c r="H347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I347" t="n">
+        <v>11</v>
+      </c>
+      <c r="J347" t="n">
+        <v>18</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>47</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1188.150024414062</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1194.849975585938</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1194.849975585938</v>
+      </c>
+      <c r="G348" t="n">
+        <v>78994</v>
+      </c>
+      <c r="H348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I348" t="n">
+        <v>11</v>
+      </c>
+      <c r="J348" t="n">
+        <v>19</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>47</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1194.849975585938</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1196.949951171875</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1137.75</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1144.949951171875</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1144.949951171875</v>
+      </c>
+      <c r="G349" t="n">
+        <v>127033</v>
+      </c>
+      <c r="H349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I349" t="n">
+        <v>11</v>
+      </c>
+      <c r="J349" t="n">
+        <v>21</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>47</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1145</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1122.099975585938</v>
+      </c>
+      <c r="F350" t="n">
+        <v>1122.099975585938</v>
+      </c>
+      <c r="G350" t="n">
+        <v>172353</v>
+      </c>
+      <c r="H350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I350" t="n">
+        <v>11</v>
+      </c>
+      <c r="J350" t="n">
+        <v>22</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>47</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R350" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R350"/>
+  <dimension ref="A1:R355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19901,7 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
-      <c r="R347" t="inlineStr"/>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -19955,7 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
-      <c r="R348" t="inlineStr"/>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -20009,7 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
-      <c r="R349" t="inlineStr"/>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -20063,7 +20069,279 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
-      <c r="R350" t="inlineStr"/>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1138.5</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1142.300048828125</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1114.5</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1119.650024414062</v>
+      </c>
+      <c r="F351" t="n">
+        <v>1119.650024414062</v>
+      </c>
+      <c r="G351" t="n">
+        <v>690804</v>
+      </c>
+      <c r="H351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I351" t="n">
+        <v>11</v>
+      </c>
+      <c r="J351" t="n">
+        <v>25</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>48</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1121.25</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1146.449951171875</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1134.25</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1134.25</v>
+      </c>
+      <c r="G352" t="n">
+        <v>169604</v>
+      </c>
+      <c r="H352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I352" t="n">
+        <v>11</v>
+      </c>
+      <c r="J352" t="n">
+        <v>26</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>48</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1139.949951171875</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1162.75</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1124.599975585938</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1152.650024414062</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1152.650024414062</v>
+      </c>
+      <c r="G353" t="n">
+        <v>402107</v>
+      </c>
+      <c r="H353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I353" t="n">
+        <v>11</v>
+      </c>
+      <c r="J353" t="n">
+        <v>27</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>48</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1152.650024414062</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1170.050048828125</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1137.050048828125</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1143.25</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1143.25</v>
+      </c>
+      <c r="G354" t="n">
+        <v>260628</v>
+      </c>
+      <c r="H354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I354" t="n">
+        <v>11</v>
+      </c>
+      <c r="J354" t="n">
+        <v>28</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>48</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1150.949951171875</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1131</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1140.050048828125</v>
+      </c>
+      <c r="F355" t="n">
+        <v>1140.050048828125</v>
+      </c>
+      <c r="G355" t="n">
+        <v>124275</v>
+      </c>
+      <c r="H355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I355" t="n">
+        <v>11</v>
+      </c>
+      <c r="J355" t="n">
+        <v>29</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>48</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R355"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20125,7 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
-      <c r="R351" t="inlineStr"/>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -20179,7 +20181,9 @@
       <c r="Q352" t="n">
         <v>0</v>
       </c>
-      <c r="R352" t="inlineStr"/>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -20233,7 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
-      <c r="R353" t="inlineStr"/>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -20287,7 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
-      <c r="R354" t="inlineStr"/>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -20341,7 +20349,279 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
-      <c r="R355" t="inlineStr"/>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1154.900024414062</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1154.900024414062</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1120.050048828125</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1132.800048828125</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1132.800048828125</v>
+      </c>
+      <c r="G356" t="n">
+        <v>665164</v>
+      </c>
+      <c r="H356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I356" t="n">
+        <v>12</v>
+      </c>
+      <c r="J356" t="n">
+        <v>2</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>49</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1158.050048828125</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1132.900024414062</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1149.650024414062</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1149.650024414062</v>
+      </c>
+      <c r="G357" t="n">
+        <v>784281</v>
+      </c>
+      <c r="H357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I357" t="n">
+        <v>12</v>
+      </c>
+      <c r="J357" t="n">
+        <v>3</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>49</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1150.050048828125</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1179.900024414062</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1141</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1166.25</v>
+      </c>
+      <c r="F358" t="n">
+        <v>1166.25</v>
+      </c>
+      <c r="G358" t="n">
+        <v>728022</v>
+      </c>
+      <c r="H358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I358" t="n">
+        <v>12</v>
+      </c>
+      <c r="J358" t="n">
+        <v>4</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>49</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1180.949951171875</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1268.800048828125</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1175.800048828125</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1249.150024414062</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1249.150024414062</v>
+      </c>
+      <c r="G359" t="n">
+        <v>2817718</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I359" t="n">
+        <v>12</v>
+      </c>
+      <c r="J359" t="n">
+        <v>5</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>49</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1247.75</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1284.900024414062</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1230</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1271.25</v>
+      </c>
+      <c r="F360" t="n">
+        <v>1271.25</v>
+      </c>
+      <c r="G360" t="n">
+        <v>600262</v>
+      </c>
+      <c r="H360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I360" t="n">
+        <v>12</v>
+      </c>
+      <c r="J360" t="n">
+        <v>6</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>49</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R360" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20117,7 +20117,7 @@
         <v>48</v>
       </c>
       <c r="O351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P351" t="n">
         <v>0</v>
@@ -20405,7 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
-      <c r="R356" t="inlineStr"/>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -20459,7 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
-      <c r="R357" t="inlineStr"/>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -20513,7 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
-      <c r="R358" t="inlineStr"/>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -20567,7 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
-      <c r="R359" t="inlineStr"/>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -20621,7 +20629,509 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
-      <c r="R360" t="inlineStr"/>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1282.900024414062</v>
+      </c>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="n">
+        <v>532721</v>
+      </c>
+      <c r="H361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I361" t="n">
+        <v>12</v>
+      </c>
+      <c r="J361" t="n">
+        <v>9</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>50</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q361" t="inlineStr"/>
+      <c r="R361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1282.900024414062</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1308.050048828125</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1274.050048828125</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1284.400024414062</v>
+      </c>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="n">
+        <v>366627</v>
+      </c>
+      <c r="H362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I362" t="n">
+        <v>12</v>
+      </c>
+      <c r="J362" t="n">
+        <v>10</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>50</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q362" t="inlineStr"/>
+      <c r="R362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1294.800048828125</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1325.699951171875</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1278.5</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1311.699951171875</v>
+      </c>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="n">
+        <v>326697</v>
+      </c>
+      <c r="H363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I363" t="n">
+        <v>12</v>
+      </c>
+      <c r="J363" t="n">
+        <v>11</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>50</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="inlineStr"/>
+      <c r="R363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1305.050048828125</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1308.699951171875</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1280</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1282.650024414062</v>
+      </c>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="n">
+        <v>196236</v>
+      </c>
+      <c r="H364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I364" t="n">
+        <v>12</v>
+      </c>
+      <c r="J364" t="n">
+        <v>12</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>50</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q364" t="inlineStr"/>
+      <c r="R364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1317</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1262</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1303.900024414062</v>
+      </c>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="n">
+        <v>585046</v>
+      </c>
+      <c r="H365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I365" t="n">
+        <v>12</v>
+      </c>
+      <c r="J365" t="n">
+        <v>13</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>50</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q365" t="inlineStr"/>
+      <c r="R365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1303.900024414062</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1323.25</v>
+      </c>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="n">
+        <v>387992</v>
+      </c>
+      <c r="H366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I366" t="n">
+        <v>12</v>
+      </c>
+      <c r="J366" t="n">
+        <v>16</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>51</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q366" t="inlineStr"/>
+      <c r="R366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1334</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1352.849975585938</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1312.75</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1339.400024414062</v>
+      </c>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="n">
+        <v>403155</v>
+      </c>
+      <c r="H367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I367" t="n">
+        <v>12</v>
+      </c>
+      <c r="J367" t="n">
+        <v>17</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>51</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q367" t="inlineStr"/>
+      <c r="R367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1314.349975585938</v>
+      </c>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="n">
+        <v>166653</v>
+      </c>
+      <c r="H368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I368" t="n">
+        <v>12</v>
+      </c>
+      <c r="J368" t="n">
+        <v>18</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N368" t="n">
+        <v>51</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q368" t="inlineStr"/>
+      <c r="R368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1302.949951171875</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1267</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1299.449951171875</v>
+      </c>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="n">
+        <v>205287</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I369" t="n">
+        <v>12</v>
+      </c>
+      <c r="J369" t="n">
+        <v>19</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="n">
+        <v>51</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q369" t="inlineStr"/>
+      <c r="R369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1318</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="n">
+        <v>220616</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I370" t="n">
+        <v>12</v>
+      </c>
+      <c r="J370" t="n">
+        <v>20</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>51</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q370" t="inlineStr"/>
+      <c r="R370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R370"/>
+  <dimension ref="A1:R374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20680,8 +20680,12 @@
       <c r="P361" t="n">
         <v>0</v>
       </c>
-      <c r="Q361" t="inlineStr"/>
-      <c r="R361" t="inlineStr"/>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -20730,8 +20734,12 @@
       <c r="P362" t="n">
         <v>0</v>
       </c>
-      <c r="Q362" t="inlineStr"/>
-      <c r="R362" t="inlineStr"/>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -20780,8 +20788,12 @@
       <c r="P363" t="n">
         <v>0</v>
       </c>
-      <c r="Q363" t="inlineStr"/>
-      <c r="R363" t="inlineStr"/>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -20830,8 +20842,12 @@
       <c r="P364" t="n">
         <v>0</v>
       </c>
-      <c r="Q364" t="inlineStr"/>
-      <c r="R364" t="inlineStr"/>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -20880,8 +20896,12 @@
       <c r="P365" t="n">
         <v>0</v>
       </c>
-      <c r="Q365" t="inlineStr"/>
-      <c r="R365" t="inlineStr"/>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -20930,8 +20950,12 @@
       <c r="P366" t="n">
         <v>0</v>
       </c>
-      <c r="Q366" t="inlineStr"/>
-      <c r="R366" t="inlineStr"/>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -20980,8 +21004,12 @@
       <c r="P367" t="n">
         <v>0</v>
       </c>
-      <c r="Q367" t="inlineStr"/>
-      <c r="R367" t="inlineStr"/>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -21030,8 +21058,12 @@
       <c r="P368" t="n">
         <v>0</v>
       </c>
-      <c r="Q368" t="inlineStr"/>
-      <c r="R368" t="inlineStr"/>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -21080,8 +21112,12 @@
       <c r="P369" t="n">
         <v>0</v>
       </c>
-      <c r="Q369" t="inlineStr"/>
-      <c r="R369" t="inlineStr"/>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -21130,8 +21166,220 @@
       <c r="P370" t="n">
         <v>0</v>
       </c>
-      <c r="Q370" t="inlineStr"/>
-      <c r="R370" t="inlineStr"/>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1270.099975585938</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1294.199951171875</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1241.199951171875</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1272.050048828125</v>
+      </c>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="n">
+        <v>173841</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I371" t="n">
+        <v>12</v>
+      </c>
+      <c r="J371" t="n">
+        <v>23</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="n">
+        <v>52</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1272.050048828125</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1277.050048828125</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1251.050048828125</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1259.800048828125</v>
+      </c>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="n">
+        <v>103092</v>
+      </c>
+      <c r="H372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I372" t="n">
+        <v>12</v>
+      </c>
+      <c r="J372" t="n">
+        <v>24</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N372" t="n">
+        <v>52</v>
+      </c>
+      <c r="O372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1307</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1250</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1287.300048828125</v>
+      </c>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="n">
+        <v>186590</v>
+      </c>
+      <c r="H373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I373" t="n">
+        <v>12</v>
+      </c>
+      <c r="J373" t="n">
+        <v>26</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N373" t="n">
+        <v>52</v>
+      </c>
+      <c r="O373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1325.050048828125</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1314.75</v>
+      </c>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="n">
+        <v>179165</v>
+      </c>
+      <c r="H374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I374" t="n">
+        <v>12</v>
+      </c>
+      <c r="J374" t="n">
+        <v>27</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>52</v>
+      </c>
+      <c r="O374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R374"/>
+  <dimension ref="A1:R379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20999,7 +20999,7 @@
         <v>51</v>
       </c>
       <c r="O367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P367" t="n">
         <v>0</v>
@@ -21223,7 +21223,9 @@
       <c r="Q371" t="n">
         <v>0</v>
       </c>
-      <c r="R371" t="inlineStr"/>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -21275,7 +21277,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
-      <c r="R372" t="inlineStr"/>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -21327,7 +21331,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
-      <c r="R373" t="inlineStr"/>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -21379,7 +21385,269 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
-      <c r="R374" t="inlineStr"/>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1311.849975585938</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1326.699951171875</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1268.849975585938</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1275.699951171875</v>
+      </c>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="n">
+        <v>254699</v>
+      </c>
+      <c r="H375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I375" t="n">
+        <v>12</v>
+      </c>
+      <c r="J375" t="n">
+        <v>30</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N375" t="n">
+        <v>1</v>
+      </c>
+      <c r="O375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1304.25</v>
+      </c>
+      <c r="D376" t="n">
+        <v>1264.699951171875</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1297.199951171875</v>
+      </c>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="n">
+        <v>175774</v>
+      </c>
+      <c r="H376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I376" t="n">
+        <v>12</v>
+      </c>
+      <c r="J376" t="n">
+        <v>31</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>1</v>
+      </c>
+      <c r="O376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1324</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1290.5</v>
+      </c>
+      <c r="E377" t="n">
+        <v>1313.650024414062</v>
+      </c>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="n">
+        <v>830975</v>
+      </c>
+      <c r="H377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I377" t="n">
+        <v>1</v>
+      </c>
+      <c r="J377" t="n">
+        <v>1</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N377" t="n">
+        <v>1</v>
+      </c>
+      <c r="O377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1312</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1268.5</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1276.099975585938</v>
+      </c>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="n">
+        <v>201062</v>
+      </c>
+      <c r="H378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I378" t="n">
+        <v>1</v>
+      </c>
+      <c r="J378" t="n">
+        <v>2</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>1</v>
+      </c>
+      <c r="O378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P378" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1312.5</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1275.800048828125</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1281.849975585938</v>
+      </c>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="n">
+        <v>371263</v>
+      </c>
+      <c r="H379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I379" t="n">
+        <v>1</v>
+      </c>
+      <c r="J379" t="n">
+        <v>3</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" t="n">
+        <v>1</v>
+      </c>
+      <c r="O379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R379"/>
+  <dimension ref="A1:R384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21439,7 +21439,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
-      <c r="R375" t="inlineStr"/>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -21491,7 +21493,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
-      <c r="R376" t="inlineStr"/>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -21543,7 +21547,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
-      <c r="R377" t="inlineStr"/>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -21595,7 +21601,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
-      <c r="R378" t="inlineStr"/>
+      <c r="R378" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -21647,7 +21655,269 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
-      <c r="R379" t="inlineStr"/>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1294.75</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1294.849975585938</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1226</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1237.75</v>
+      </c>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="n">
+        <v>231712</v>
+      </c>
+      <c r="H380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I380" t="n">
+        <v>1</v>
+      </c>
+      <c r="J380" t="n">
+        <v>6</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>2</v>
+      </c>
+      <c r="O380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1237.949951171875</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1226.150024414062</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1259.300048828125</v>
+      </c>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="n">
+        <v>272493</v>
+      </c>
+      <c r="H381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1</v>
+      </c>
+      <c r="J381" t="n">
+        <v>7</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>2</v>
+      </c>
+      <c r="O381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1261.199951171875</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1262.949951171875</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1234.150024414062</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1245.400024414062</v>
+      </c>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="n">
+        <v>208005</v>
+      </c>
+      <c r="H382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1</v>
+      </c>
+      <c r="J382" t="n">
+        <v>8</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" t="n">
+        <v>2</v>
+      </c>
+      <c r="O382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1243.550048828125</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1232.099975585938</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1247</v>
+      </c>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="n">
+        <v>143760</v>
+      </c>
+      <c r="H383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1</v>
+      </c>
+      <c r="J383" t="n">
+        <v>9</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N383" t="n">
+        <v>2</v>
+      </c>
+      <c r="O383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1247</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1251.599975585938</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1203.650024414062</v>
+      </c>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="n">
+        <v>601651</v>
+      </c>
+      <c r="H384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I384" t="n">
+        <v>1</v>
+      </c>
+      <c r="J384" t="n">
+        <v>10</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>2</v>
+      </c>
+      <c r="O384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R384"/>
+  <dimension ref="A1:R389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
         <v>1</v>
@@ -21709,7 +21709,9 @@
       <c r="Q380" t="n">
         <v>0</v>
       </c>
-      <c r="R380" t="inlineStr"/>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -21761,7 +21763,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
-      <c r="R381" t="inlineStr"/>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -21813,7 +21817,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
-      <c r="R382" t="inlineStr"/>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -21865,7 +21871,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
-      <c r="R383" t="inlineStr"/>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -21917,7 +21925,269 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
-      <c r="R384" t="inlineStr"/>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1182.050048828125</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1191.099975585938</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1141.25</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1171.349975585938</v>
+      </c>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="n">
+        <v>394128</v>
+      </c>
+      <c r="H385" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1</v>
+      </c>
+      <c r="J385" t="n">
+        <v>13</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N385" t="n">
+        <v>3</v>
+      </c>
+      <c r="O385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1165</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1179.900024414062</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1150.050048828125</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1165.949951171875</v>
+      </c>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="n">
+        <v>229142</v>
+      </c>
+      <c r="H386" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1</v>
+      </c>
+      <c r="J386" t="n">
+        <v>14</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>3</v>
+      </c>
+      <c r="O386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1186.800048828125</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1154.949951171875</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1177.800048828125</v>
+      </c>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="n">
+        <v>260002</v>
+      </c>
+      <c r="H387" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1</v>
+      </c>
+      <c r="J387" t="n">
+        <v>15</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>3</v>
+      </c>
+      <c r="O387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1180.949951171875</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1213.400024414062</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1169.050048828125</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1203.449951171875</v>
+      </c>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="n">
+        <v>293359</v>
+      </c>
+      <c r="H388" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1</v>
+      </c>
+      <c r="J388" t="n">
+        <v>16</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N388" t="n">
+        <v>3</v>
+      </c>
+      <c r="O388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1206.349975585938</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1173.650024414062</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1178.599975585938</v>
+      </c>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="n">
+        <v>85260</v>
+      </c>
+      <c r="H389" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1</v>
+      </c>
+      <c r="J389" t="n">
+        <v>17</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>3</v>
+      </c>
+      <c r="O389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R389"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="R127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="R140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -11222,7 +11222,7 @@
         <v>2</v>
       </c>
       <c r="R192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="R224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -13742,7 +13742,7 @@
         <v>2</v>
       </c>
       <c r="R237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238">
@@ -16038,7 +16038,7 @@
         <v>2</v>
       </c>
       <c r="R278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -18726,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="R326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -21602,7 +21602,7 @@
         <v>0</v>
       </c>
       <c r="R378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -21979,7 +21979,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
-      <c r="R385" t="inlineStr"/>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -22031,7 +22033,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
-      <c r="R386" t="inlineStr"/>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -22083,7 +22087,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
-      <c r="R387" t="inlineStr"/>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -22135,7 +22141,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
-      <c r="R388" t="inlineStr"/>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -22187,7 +22195,269 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
-      <c r="R389" t="inlineStr"/>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1197.900024414062</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1152.650024414062</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1190.199951171875</v>
+      </c>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="n">
+        <v>199240</v>
+      </c>
+      <c r="H390" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="n">
+        <v>20</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>4</v>
+      </c>
+      <c r="O390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1118.050048828125</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1125.699951171875</v>
+      </c>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="n">
+        <v>163552</v>
+      </c>
+      <c r="H391" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I391" t="n">
+        <v>1</v>
+      </c>
+      <c r="J391" t="n">
+        <v>21</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>4</v>
+      </c>
+      <c r="O391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1121.599975585938</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1134.949951171875</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1111.300048828125</v>
+      </c>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="n">
+        <v>282244</v>
+      </c>
+      <c r="H392" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1</v>
+      </c>
+      <c r="J392" t="n">
+        <v>22</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>4</v>
+      </c>
+      <c r="O392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1111.300048828125</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1135</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1099.050048828125</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1106.099975585938</v>
+      </c>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="n">
+        <v>283643</v>
+      </c>
+      <c r="H393" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1</v>
+      </c>
+      <c r="J393" t="n">
+        <v>23</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>4</v>
+      </c>
+      <c r="O393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1124.949951171875</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1135.449951171875</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1052</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1055.099975585938</v>
+      </c>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="n">
+        <v>331702</v>
+      </c>
+      <c r="H394" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>24</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>4</v>
+      </c>
+      <c r="O394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="R151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -11222,7 +11222,7 @@
         <v>2</v>
       </c>
       <c r="R192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -13014,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="R224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -13462,7 +13462,7 @@
         <v>1</v>
       </c>
       <c r="R232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -13742,7 +13742,7 @@
         <v>2</v>
       </c>
       <c r="R237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -16038,7 +16038,7 @@
         <v>2</v>
       </c>
       <c r="R278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -18726,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -21602,7 +21602,7 @@
         <v>0</v>
       </c>
       <c r="R378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -22249,7 +22249,9 @@
       <c r="Q390" t="n">
         <v>0</v>
       </c>
-      <c r="R390" t="inlineStr"/>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -22301,7 +22303,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
-      <c r="R391" t="inlineStr"/>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -22353,7 +22357,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
-      <c r="R392" t="inlineStr"/>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -22405,7 +22411,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
-      <c r="R393" t="inlineStr"/>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -22457,7 +22465,217 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
-      <c r="R394" t="inlineStr"/>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1055.150024414062</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1058</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1005.900024414062</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1020.849975585938</v>
+      </c>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="n">
+        <v>359319</v>
+      </c>
+      <c r="H395" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1</v>
+      </c>
+      <c r="J395" t="n">
+        <v>27</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>5</v>
+      </c>
+      <c r="O395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1039.050048828125</v>
+      </c>
+      <c r="D396" t="n">
+        <v>976.1500244140625</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1015.950012207031</v>
+      </c>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="n">
+        <v>335325</v>
+      </c>
+      <c r="H396" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>28</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>5</v>
+      </c>
+      <c r="O396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1001.200012207031</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1055.900024414062</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1001.200012207031</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1047.949951171875</v>
+      </c>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="n">
+        <v>245644</v>
+      </c>
+      <c r="H397" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1</v>
+      </c>
+      <c r="J397" t="n">
+        <v>29</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>5</v>
+      </c>
+      <c r="O397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1021.25</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1021.25</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1058.650024414062</v>
+      </c>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="n">
+        <v>108238</v>
+      </c>
+      <c r="H398" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1</v>
+      </c>
+      <c r="J398" t="n">
+        <v>31</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" t="n">
+        <v>5</v>
+      </c>
+      <c r="O398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R398"/>
+  <dimension ref="A1:R405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22519,7 +22519,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
-      <c r="R395" t="inlineStr"/>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -22571,7 +22573,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
-      <c r="R396" t="inlineStr"/>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -22623,27 +22627,29 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
-      <c r="R397" t="inlineStr"/>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="B398" t="n">
-        <v>1021.25</v>
+        <v>1048.550048828125</v>
       </c>
       <c r="C398" t="n">
-        <v>1064.449951171875</v>
+        <v>1065.800048828125</v>
       </c>
       <c r="D398" t="n">
-        <v>1021.25</v>
+        <v>1018.299987792969</v>
       </c>
       <c r="E398" t="n">
-        <v>1058.650024414062</v>
+        <v>1027.75</v>
       </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="n">
-        <v>108238</v>
+        <v>95705</v>
       </c>
       <c r="H398" t="n">
         <v>2025</v>
@@ -22652,7 +22658,7 @@
         <v>1</v>
       </c>
       <c r="J398" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K398" t="n">
         <v>0</v>
@@ -22676,6 +22682,372 @@
         <v>0</v>
       </c>
       <c r="R398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1021.25</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1064.449951171875</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1021.25</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1058.650024414062</v>
+      </c>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="n">
+        <v>108238</v>
+      </c>
+      <c r="H399" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="n">
+        <v>31</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" t="n">
+        <v>5</v>
+      </c>
+      <c r="O399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1060.75</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1084.199951171875</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1012.5</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1028.300048828125</v>
+      </c>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="n">
+        <v>194338</v>
+      </c>
+      <c r="H400" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="n">
+        <v>5</v>
+      </c>
+      <c r="O400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D401" t="n">
+        <v>979.0499877929688</v>
+      </c>
+      <c r="E401" t="n">
+        <v>999.5999755859375</v>
+      </c>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="n">
+        <v>362459</v>
+      </c>
+      <c r="H401" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2</v>
+      </c>
+      <c r="J401" t="n">
+        <v>3</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N401" t="n">
+        <v>6</v>
+      </c>
+      <c r="O401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1031.650024414062</v>
+      </c>
+      <c r="D402" t="n">
+        <v>999.9500122070312</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1019.400024414062</v>
+      </c>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="n">
+        <v>378686</v>
+      </c>
+      <c r="H402" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2</v>
+      </c>
+      <c r="J402" t="n">
+        <v>4</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N402" t="n">
+        <v>6</v>
+      </c>
+      <c r="O402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1046.050048828125</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1001.450012207031</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1040.349975585938</v>
+      </c>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="n">
+        <v>494502</v>
+      </c>
+      <c r="H403" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2</v>
+      </c>
+      <c r="J403" t="n">
+        <v>5</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N403" t="n">
+        <v>6</v>
+      </c>
+      <c r="O403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1040.349975585938</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1040.349975585938</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1051.449951171875</v>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="n">
+        <v>131007</v>
+      </c>
+      <c r="H404" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2</v>
+      </c>
+      <c r="J404" t="n">
+        <v>6</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N404" t="n">
+        <v>6</v>
+      </c>
+      <c r="O404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1054.949951171875</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1019</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1040.650024414062</v>
+      </c>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="n">
+        <v>188093</v>
+      </c>
+      <c r="H405" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2</v>
+      </c>
+      <c r="J405" t="n">
+        <v>7</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>6</v>
+      </c>
+      <c r="O405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R405" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R405"/>
+  <dimension ref="A1:R410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22565,7 +22565,7 @@
         <v>5</v>
       </c>
       <c r="O396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P396" t="n">
         <v>0</v>
@@ -22681,7 +22681,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
-      <c r="R398" t="inlineStr"/>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -22787,7 +22789,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
-      <c r="R400" t="inlineStr"/>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -22839,7 +22843,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
-      <c r="R401" t="inlineStr"/>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -22891,7 +22897,9 @@
       <c r="Q402" t="n">
         <v>0</v>
       </c>
-      <c r="R402" t="inlineStr"/>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -22943,7 +22951,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
-      <c r="R403" t="inlineStr"/>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -22995,7 +23005,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
-      <c r="R404" t="inlineStr"/>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -23047,7 +23059,269 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
-      <c r="R405" t="inlineStr"/>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1042.050048828125</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1048.949951171875</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1016.5</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1035.650024414062</v>
+      </c>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="n">
+        <v>280257</v>
+      </c>
+      <c r="H406" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2</v>
+      </c>
+      <c r="J406" t="n">
+        <v>10</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N406" t="n">
+        <v>7</v>
+      </c>
+      <c r="O406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1031.150024414062</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1031.150024414062</v>
+      </c>
+      <c r="D407" t="n">
+        <v>980.1500244140625</v>
+      </c>
+      <c r="E407" t="n">
+        <v>991.2999877929688</v>
+      </c>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="n">
+        <v>254594</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2</v>
+      </c>
+      <c r="J407" t="n">
+        <v>11</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N407" t="n">
+        <v>7</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1000.950012207031</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1007.5</v>
+      </c>
+      <c r="D408" t="n">
+        <v>941.5</v>
+      </c>
+      <c r="E408" t="n">
+        <v>965.0999755859375</v>
+      </c>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="n">
+        <v>487970</v>
+      </c>
+      <c r="H408" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2</v>
+      </c>
+      <c r="J408" t="n">
+        <v>12</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N408" t="n">
+        <v>7</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B409" t="n">
+        <v>967.9500122070312</v>
+      </c>
+      <c r="C409" t="n">
+        <v>999.7999877929688</v>
+      </c>
+      <c r="D409" t="n">
+        <v>966.5499877929688</v>
+      </c>
+      <c r="E409" t="n">
+        <v>982.25</v>
+      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="n">
+        <v>553631</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2</v>
+      </c>
+      <c r="J409" t="n">
+        <v>13</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>7</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B410" t="n">
+        <v>980.9000244140625</v>
+      </c>
+      <c r="C410" t="n">
+        <v>991.7000122070312</v>
+      </c>
+      <c r="D410" t="n">
+        <v>852.5999755859375</v>
+      </c>
+      <c r="E410" t="n">
+        <v>879.5499877929688</v>
+      </c>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="n">
+        <v>2069813</v>
+      </c>
+      <c r="H410" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2</v>
+      </c>
+      <c r="J410" t="n">
+        <v>14</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N410" t="n">
+        <v>7</v>
+      </c>
+      <c r="O410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R410"/>
+  <dimension ref="A1:R415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23113,7 +23113,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
-      <c r="R406" t="inlineStr"/>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -23165,7 +23167,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
-      <c r="R407" t="inlineStr"/>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -23217,7 +23221,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
-      <c r="R408" t="inlineStr"/>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -23269,7 +23275,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
-      <c r="R409" t="inlineStr"/>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -23321,7 +23329,269 @@
       <c r="Q410" t="n">
         <v>0</v>
       </c>
-      <c r="R410" t="inlineStr"/>
+      <c r="R410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B411" t="n">
+        <v>880.9500122070312</v>
+      </c>
+      <c r="C411" t="n">
+        <v>944.9000244140625</v>
+      </c>
+      <c r="D411" t="n">
+        <v>845.2999877929688</v>
+      </c>
+      <c r="E411" t="n">
+        <v>923.2999877929688</v>
+      </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="n">
+        <v>1482093</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2</v>
+      </c>
+      <c r="J411" t="n">
+        <v>17</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N411" t="n">
+        <v>8</v>
+      </c>
+      <c r="O411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B412" t="n">
+        <v>925</v>
+      </c>
+      <c r="C412" t="n">
+        <v>928.6500244140625</v>
+      </c>
+      <c r="D412" t="n">
+        <v>888</v>
+      </c>
+      <c r="E412" t="n">
+        <v>902.9500122070312</v>
+      </c>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="n">
+        <v>686699</v>
+      </c>
+      <c r="H412" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2</v>
+      </c>
+      <c r="J412" t="n">
+        <v>18</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N412" t="n">
+        <v>8</v>
+      </c>
+      <c r="O412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B413" t="n">
+        <v>904.0499877929688</v>
+      </c>
+      <c r="C413" t="n">
+        <v>944.7999877929688</v>
+      </c>
+      <c r="D413" t="n">
+        <v>891.5</v>
+      </c>
+      <c r="E413" t="n">
+        <v>940.7999877929688</v>
+      </c>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="n">
+        <v>293435</v>
+      </c>
+      <c r="H413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2</v>
+      </c>
+      <c r="J413" t="n">
+        <v>19</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N413" t="n">
+        <v>8</v>
+      </c>
+      <c r="O413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B414" t="n">
+        <v>940.7999877929688</v>
+      </c>
+      <c r="C414" t="n">
+        <v>948</v>
+      </c>
+      <c r="D414" t="n">
+        <v>916.0499877929688</v>
+      </c>
+      <c r="E414" t="n">
+        <v>926.4500122070312</v>
+      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="n">
+        <v>318621</v>
+      </c>
+      <c r="H414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I414" t="n">
+        <v>2</v>
+      </c>
+      <c r="J414" t="n">
+        <v>20</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N414" t="n">
+        <v>8</v>
+      </c>
+      <c r="O414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B415" t="n">
+        <v>931.3499755859375</v>
+      </c>
+      <c r="C415" t="n">
+        <v>964</v>
+      </c>
+      <c r="D415" t="n">
+        <v>915.2000122070312</v>
+      </c>
+      <c r="E415" t="n">
+        <v>919.5999755859375</v>
+      </c>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="n">
+        <v>241848</v>
+      </c>
+      <c r="H415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2</v>
+      </c>
+      <c r="J415" t="n">
+        <v>21</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N415" t="n">
+        <v>8</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R415" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R415"/>
+  <dimension ref="A1:R424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R110" t="n">
         <v>1</v>
@@ -23383,7 +23383,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
-      <c r="R411" t="inlineStr"/>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -23435,7 +23437,9 @@
       <c r="Q412" t="n">
         <v>0</v>
       </c>
-      <c r="R412" t="inlineStr"/>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -23487,7 +23491,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
-      <c r="R413" t="inlineStr"/>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -23539,7 +23545,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
-      <c r="R414" t="inlineStr"/>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -23591,7 +23599,477 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
-      <c r="R415" t="inlineStr"/>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B416" t="n">
+        <v>913.0999755859375</v>
+      </c>
+      <c r="C416" t="n">
+        <v>936.8499755859375</v>
+      </c>
+      <c r="D416" t="n">
+        <v>892.75</v>
+      </c>
+      <c r="E416" t="n">
+        <v>927.9000244140625</v>
+      </c>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="n">
+        <v>220098</v>
+      </c>
+      <c r="H416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2</v>
+      </c>
+      <c r="J416" t="n">
+        <v>24</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N416" t="n">
+        <v>9</v>
+      </c>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B417" t="n">
+        <v>930.0499877929688</v>
+      </c>
+      <c r="C417" t="n">
+        <v>930.0499877929688</v>
+      </c>
+      <c r="D417" t="n">
+        <v>901.2999877929688</v>
+      </c>
+      <c r="E417" t="n">
+        <v>903.9500122070312</v>
+      </c>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="n">
+        <v>235479</v>
+      </c>
+      <c r="H417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2</v>
+      </c>
+      <c r="J417" t="n">
+        <v>25</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N417" t="n">
+        <v>9</v>
+      </c>
+      <c r="O417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B418" t="n">
+        <v>915.0499877929688</v>
+      </c>
+      <c r="C418" t="n">
+        <v>916.3499755859375</v>
+      </c>
+      <c r="D418" t="n">
+        <v>884</v>
+      </c>
+      <c r="E418" t="n">
+        <v>901.0499877929688</v>
+      </c>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="n">
+        <v>216222</v>
+      </c>
+      <c r="H418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2</v>
+      </c>
+      <c r="J418" t="n">
+        <v>27</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N418" t="n">
+        <v>9</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B419" t="n">
+        <v>887.5499877929688</v>
+      </c>
+      <c r="C419" t="n">
+        <v>898</v>
+      </c>
+      <c r="D419" t="n">
+        <v>856.5</v>
+      </c>
+      <c r="E419" t="n">
+        <v>879.1500244140625</v>
+      </c>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="n">
+        <v>1054245</v>
+      </c>
+      <c r="H419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2</v>
+      </c>
+      <c r="J419" t="n">
+        <v>28</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N419" t="n">
+        <v>9</v>
+      </c>
+      <c r="O419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B420" t="n">
+        <v>879</v>
+      </c>
+      <c r="C420" t="n">
+        <v>886.9000244140625</v>
+      </c>
+      <c r="D420" t="n">
+        <v>830</v>
+      </c>
+      <c r="E420" t="n">
+        <v>840.5499877929688</v>
+      </c>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="n">
+        <v>371213</v>
+      </c>
+      <c r="H420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I420" t="n">
+        <v>3</v>
+      </c>
+      <c r="J420" t="n">
+        <v>3</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N420" t="n">
+        <v>10</v>
+      </c>
+      <c r="O420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B421" t="n">
+        <v>836</v>
+      </c>
+      <c r="C421" t="n">
+        <v>857.2000122070312</v>
+      </c>
+      <c r="D421" t="n">
+        <v>821.2999877929688</v>
+      </c>
+      <c r="E421" t="n">
+        <v>843.9500122070312</v>
+      </c>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="n">
+        <v>455690</v>
+      </c>
+      <c r="H421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I421" t="n">
+        <v>3</v>
+      </c>
+      <c r="J421" t="n">
+        <v>4</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N421" t="n">
+        <v>10</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B422" t="n">
+        <v>847.4500122070312</v>
+      </c>
+      <c r="C422" t="n">
+        <v>915</v>
+      </c>
+      <c r="D422" t="n">
+        <v>846.1500244140625</v>
+      </c>
+      <c r="E422" t="n">
+        <v>898.4000244140625</v>
+      </c>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="n">
+        <v>926839</v>
+      </c>
+      <c r="H422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3</v>
+      </c>
+      <c r="J422" t="n">
+        <v>5</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N422" t="n">
+        <v>10</v>
+      </c>
+      <c r="O422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B423" t="n">
+        <v>902.4500122070312</v>
+      </c>
+      <c r="C423" t="n">
+        <v>979</v>
+      </c>
+      <c r="D423" t="n">
+        <v>890.9500122070312</v>
+      </c>
+      <c r="E423" t="n">
+        <v>917.0499877929688</v>
+      </c>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="n">
+        <v>2600008</v>
+      </c>
+      <c r="H423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3</v>
+      </c>
+      <c r="J423" t="n">
+        <v>6</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>10</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B424" t="n">
+        <v>950</v>
+      </c>
+      <c r="C424" t="n">
+        <v>978</v>
+      </c>
+      <c r="D424" t="n">
+        <v>921</v>
+      </c>
+      <c r="E424" t="n">
+        <v>931.2000122070312</v>
+      </c>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="n">
+        <v>6805033</v>
+      </c>
+      <c r="H424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I424" t="n">
+        <v>3</v>
+      </c>
+      <c r="J424" t="n">
+        <v>7</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>10</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R424"/>
+  <dimension ref="A1:R433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23653,7 +23653,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
-      <c r="R416" t="inlineStr"/>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -23705,7 +23707,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
-      <c r="R417" t="inlineStr"/>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -23757,7 +23761,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
-      <c r="R418" t="inlineStr"/>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -23809,7 +23815,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
-      <c r="R419" t="inlineStr"/>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -23861,7 +23869,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
-      <c r="R420" t="inlineStr"/>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -23905,7 +23915,7 @@
         <v>10</v>
       </c>
       <c r="O421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P421" t="n">
         <v>0</v>
@@ -23913,7 +23923,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
-      <c r="R421" t="inlineStr"/>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -23965,7 +23977,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
-      <c r="R422" t="inlineStr"/>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -24017,7 +24031,9 @@
       <c r="Q423" t="n">
         <v>0</v>
       </c>
-      <c r="R423" t="inlineStr"/>
+      <c r="R423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -24069,7 +24085,477 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
-      <c r="R424" t="inlineStr"/>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B425" t="n">
+        <v>926</v>
+      </c>
+      <c r="C425" t="n">
+        <v>945</v>
+      </c>
+      <c r="D425" t="n">
+        <v>903.4000244140625</v>
+      </c>
+      <c r="E425" t="n">
+        <v>907.9000244140625</v>
+      </c>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="n">
+        <v>440303</v>
+      </c>
+      <c r="H425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I425" t="n">
+        <v>3</v>
+      </c>
+      <c r="J425" t="n">
+        <v>10</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N425" t="n">
+        <v>11</v>
+      </c>
+      <c r="O425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B426" t="n">
+        <v>899</v>
+      </c>
+      <c r="C426" t="n">
+        <v>909.1500244140625</v>
+      </c>
+      <c r="D426" t="n">
+        <v>868</v>
+      </c>
+      <c r="E426" t="n">
+        <v>875.4000244140625</v>
+      </c>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="n">
+        <v>451003</v>
+      </c>
+      <c r="H426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I426" t="n">
+        <v>3</v>
+      </c>
+      <c r="J426" t="n">
+        <v>11</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N426" t="n">
+        <v>11</v>
+      </c>
+      <c r="O426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B427" t="n">
+        <v>885.6500244140625</v>
+      </c>
+      <c r="C427" t="n">
+        <v>899.4500122070312</v>
+      </c>
+      <c r="D427" t="n">
+        <v>872.1500244140625</v>
+      </c>
+      <c r="E427" t="n">
+        <v>878.4500122070312</v>
+      </c>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="n">
+        <v>305838</v>
+      </c>
+      <c r="H427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3</v>
+      </c>
+      <c r="J427" t="n">
+        <v>12</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N427" t="n">
+        <v>11</v>
+      </c>
+      <c r="O427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B428" t="n">
+        <v>877.0999755859375</v>
+      </c>
+      <c r="C428" t="n">
+        <v>884.4000244140625</v>
+      </c>
+      <c r="D428" t="n">
+        <v>852.75</v>
+      </c>
+      <c r="E428" t="n">
+        <v>856.6500244140625</v>
+      </c>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="n">
+        <v>249881</v>
+      </c>
+      <c r="H428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I428" t="n">
+        <v>3</v>
+      </c>
+      <c r="J428" t="n">
+        <v>13</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N428" t="n">
+        <v>11</v>
+      </c>
+      <c r="O428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B429" t="n">
+        <v>865</v>
+      </c>
+      <c r="C429" t="n">
+        <v>876.25</v>
+      </c>
+      <c r="D429" t="n">
+        <v>854</v>
+      </c>
+      <c r="E429" t="n">
+        <v>873.7000122070312</v>
+      </c>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="n">
+        <v>428531</v>
+      </c>
+      <c r="H429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I429" t="n">
+        <v>3</v>
+      </c>
+      <c r="J429" t="n">
+        <v>17</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N429" t="n">
+        <v>12</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B430" t="n">
+        <v>875</v>
+      </c>
+      <c r="C430" t="n">
+        <v>946</v>
+      </c>
+      <c r="D430" t="n">
+        <v>875</v>
+      </c>
+      <c r="E430" t="n">
+        <v>904.7000122070312</v>
+      </c>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="n">
+        <v>484927</v>
+      </c>
+      <c r="H430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3</v>
+      </c>
+      <c r="J430" t="n">
+        <v>18</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N430" t="n">
+        <v>12</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B431" t="n">
+        <v>914.4000244140625</v>
+      </c>
+      <c r="C431" t="n">
+        <v>929.0999755859375</v>
+      </c>
+      <c r="D431" t="n">
+        <v>907.0999755859375</v>
+      </c>
+      <c r="E431" t="n">
+        <v>924.5499877929688</v>
+      </c>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="n">
+        <v>224906</v>
+      </c>
+      <c r="H431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3</v>
+      </c>
+      <c r="J431" t="n">
+        <v>19</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N431" t="n">
+        <v>12</v>
+      </c>
+      <c r="O431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B432" t="n">
+        <v>935</v>
+      </c>
+      <c r="C432" t="n">
+        <v>944</v>
+      </c>
+      <c r="D432" t="n">
+        <v>913</v>
+      </c>
+      <c r="E432" t="n">
+        <v>939</v>
+      </c>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="n">
+        <v>437186</v>
+      </c>
+      <c r="H432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3</v>
+      </c>
+      <c r="J432" t="n">
+        <v>20</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N432" t="n">
+        <v>12</v>
+      </c>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B433" t="n">
+        <v>940.5</v>
+      </c>
+      <c r="C433" t="n">
+        <v>983.9000244140625</v>
+      </c>
+      <c r="D433" t="n">
+        <v>928.25</v>
+      </c>
+      <c r="E433" t="n">
+        <v>973.5499877929688</v>
+      </c>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="n">
+        <v>931390</v>
+      </c>
+      <c r="H433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3</v>
+      </c>
+      <c r="J433" t="n">
+        <v>21</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N433" t="n">
+        <v>12</v>
+      </c>
+      <c r="O433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R433" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R433"/>
+  <dimension ref="A1:R442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7579,7 +7579,7 @@
         <v>2</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R127" t="n">
         <v>2</v>
@@ -24139,7 +24139,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
-      <c r="R425" t="inlineStr"/>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -24191,7 +24193,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
-      <c r="R426" t="inlineStr"/>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -24243,7 +24247,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
-      <c r="R427" t="inlineStr"/>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -24295,7 +24301,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
-      <c r="R428" t="inlineStr"/>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -24347,7 +24355,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
-      <c r="R429" t="inlineStr"/>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -24399,7 +24409,9 @@
       <c r="Q430" t="n">
         <v>0</v>
       </c>
-      <c r="R430" t="inlineStr"/>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -24451,7 +24463,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
-      <c r="R431" t="inlineStr"/>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -24503,7 +24517,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
-      <c r="R432" t="inlineStr"/>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -24555,7 +24571,477 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
-      <c r="R433" t="inlineStr"/>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B434" t="n">
+        <v>975</v>
+      </c>
+      <c r="C434" t="n">
+        <v>992</v>
+      </c>
+      <c r="D434" t="n">
+        <v>968.2000122070312</v>
+      </c>
+      <c r="E434" t="n">
+        <v>980.4000244140625</v>
+      </c>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="n">
+        <v>424152</v>
+      </c>
+      <c r="H434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I434" t="n">
+        <v>3</v>
+      </c>
+      <c r="J434" t="n">
+        <v>24</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N434" t="n">
+        <v>13</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B435" t="n">
+        <v>995</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1035</v>
+      </c>
+      <c r="D435" t="n">
+        <v>991.1500244140625</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1016.900024414062</v>
+      </c>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="n">
+        <v>1342686</v>
+      </c>
+      <c r="H435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I435" t="n">
+        <v>3</v>
+      </c>
+      <c r="J435" t="n">
+        <v>25</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N435" t="n">
+        <v>13</v>
+      </c>
+      <c r="O435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1069.099975585938</v>
+      </c>
+      <c r="D436" t="n">
+        <v>997.0999755859375</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1008.799987792969</v>
+      </c>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="n">
+        <v>1385591</v>
+      </c>
+      <c r="H436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I436" t="n">
+        <v>3</v>
+      </c>
+      <c r="J436" t="n">
+        <v>26</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N436" t="n">
+        <v>13</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1078.849975585938</v>
+      </c>
+      <c r="D437" t="n">
+        <v>891.7000122070312</v>
+      </c>
+      <c r="E437" t="n">
+        <v>982.9000244140625</v>
+      </c>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="n">
+        <v>1082776</v>
+      </c>
+      <c r="H437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I437" t="n">
+        <v>3</v>
+      </c>
+      <c r="J437" t="n">
+        <v>27</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N437" t="n">
+        <v>13</v>
+      </c>
+      <c r="O437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B438" t="n">
+        <v>987.75</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1009.450012207031</v>
+      </c>
+      <c r="D438" t="n">
+        <v>968.8499755859375</v>
+      </c>
+      <c r="E438" t="n">
+        <v>974.5</v>
+      </c>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="n">
+        <v>521419</v>
+      </c>
+      <c r="H438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3</v>
+      </c>
+      <c r="J438" t="n">
+        <v>28</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N438" t="n">
+        <v>13</v>
+      </c>
+      <c r="O438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B439" t="n">
+        <v>974.5</v>
+      </c>
+      <c r="C439" t="n">
+        <v>986.6500244140625</v>
+      </c>
+      <c r="D439" t="n">
+        <v>962.3499755859375</v>
+      </c>
+      <c r="E439" t="n">
+        <v>983.2000122070312</v>
+      </c>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="n">
+        <v>178923</v>
+      </c>
+      <c r="H439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I439" t="n">
+        <v>4</v>
+      </c>
+      <c r="J439" t="n">
+        <v>1</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N439" t="n">
+        <v>14</v>
+      </c>
+      <c r="O439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B440" t="n">
+        <v>980</v>
+      </c>
+      <c r="C440" t="n">
+        <v>984.2999877929688</v>
+      </c>
+      <c r="D440" t="n">
+        <v>961.5</v>
+      </c>
+      <c r="E440" t="n">
+        <v>971.0999755859375</v>
+      </c>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="n">
+        <v>112065</v>
+      </c>
+      <c r="H440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I440" t="n">
+        <v>4</v>
+      </c>
+      <c r="J440" t="n">
+        <v>2</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N440" t="n">
+        <v>14</v>
+      </c>
+      <c r="O440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B441" t="n">
+        <v>970</v>
+      </c>
+      <c r="C441" t="n">
+        <v>981</v>
+      </c>
+      <c r="D441" t="n">
+        <v>957</v>
+      </c>
+      <c r="E441" t="n">
+        <v>959.8499755859375</v>
+      </c>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="n">
+        <v>177565</v>
+      </c>
+      <c r="H441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I441" t="n">
+        <v>4</v>
+      </c>
+      <c r="J441" t="n">
+        <v>3</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N441" t="n">
+        <v>14</v>
+      </c>
+      <c r="O441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B442" t="n">
+        <v>950.8499755859375</v>
+      </c>
+      <c r="C442" t="n">
+        <v>959.6500244140625</v>
+      </c>
+      <c r="D442" t="n">
+        <v>924</v>
+      </c>
+      <c r="E442" t="n">
+        <v>931.5</v>
+      </c>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="n">
+        <v>121518</v>
+      </c>
+      <c r="H442" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I442" t="n">
+        <v>4</v>
+      </c>
+      <c r="J442" t="n">
+        <v>4</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N442" t="n">
+        <v>14</v>
+      </c>
+      <c r="O442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R442" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R442"/>
+  <dimension ref="A1:R446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24625,7 +24625,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
-      <c r="R434" t="inlineStr"/>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -24677,7 +24679,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
-      <c r="R435" t="inlineStr"/>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -24729,7 +24733,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
-      <c r="R436" t="inlineStr"/>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -24781,7 +24787,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
-      <c r="R437" t="inlineStr"/>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -24833,7 +24841,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
-      <c r="R438" t="inlineStr"/>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -24885,7 +24895,9 @@
       <c r="Q439" t="n">
         <v>0</v>
       </c>
-      <c r="R439" t="inlineStr"/>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -24937,7 +24949,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
-      <c r="R440" t="inlineStr"/>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -24989,7 +25003,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
-      <c r="R441" t="inlineStr"/>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -25041,7 +25057,217 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
-      <c r="R442" t="inlineStr"/>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B443" t="n">
+        <v>788</v>
+      </c>
+      <c r="C443" t="n">
+        <v>879.9000244140625</v>
+      </c>
+      <c r="D443" t="n">
+        <v>786.2999877929688</v>
+      </c>
+      <c r="E443" t="n">
+        <v>868.75</v>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="n">
+        <v>225219</v>
+      </c>
+      <c r="H443" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I443" t="n">
+        <v>4</v>
+      </c>
+      <c r="J443" t="n">
+        <v>7</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N443" t="n">
+        <v>15</v>
+      </c>
+      <c r="O443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B444" t="n">
+        <v>886.1500244140625</v>
+      </c>
+      <c r="C444" t="n">
+        <v>898</v>
+      </c>
+      <c r="D444" t="n">
+        <v>868</v>
+      </c>
+      <c r="E444" t="n">
+        <v>876.8499755859375</v>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="n">
+        <v>160011</v>
+      </c>
+      <c r="H444" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I444" t="n">
+        <v>4</v>
+      </c>
+      <c r="J444" t="n">
+        <v>8</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" t="n">
+        <v>15</v>
+      </c>
+      <c r="O444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B445" t="n">
+        <v>882.5499877929688</v>
+      </c>
+      <c r="C445" t="n">
+        <v>892.8499755859375</v>
+      </c>
+      <c r="D445" t="n">
+        <v>856</v>
+      </c>
+      <c r="E445" t="n">
+        <v>887.5999755859375</v>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="n">
+        <v>168695</v>
+      </c>
+      <c r="H445" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I445" t="n">
+        <v>4</v>
+      </c>
+      <c r="J445" t="n">
+        <v>9</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N445" t="n">
+        <v>15</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B446" t="n">
+        <v>903.4500122070312</v>
+      </c>
+      <c r="C446" t="n">
+        <v>908.7000122070312</v>
+      </c>
+      <c r="D446" t="n">
+        <v>889.7000122070312</v>
+      </c>
+      <c r="E446" t="n">
+        <v>896.2999877929688</v>
+      </c>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="n">
+        <v>339310</v>
+      </c>
+      <c r="H446" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I446" t="n">
+        <v>4</v>
+      </c>
+      <c r="J446" t="n">
+        <v>11</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" t="n">
+        <v>15</v>
+      </c>
+      <c r="O446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R446" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R446"/>
+  <dimension ref="A1:R449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="Q140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R140" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>13</v>
       </c>
       <c r="O437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P437" t="n">
         <v>0</v>
@@ -25111,7 +25111,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
-      <c r="R443" t="inlineStr"/>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -25163,7 +25165,9 @@
       <c r="Q444" t="n">
         <v>0</v>
       </c>
-      <c r="R444" t="inlineStr"/>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -25215,7 +25219,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
-      <c r="R445" t="inlineStr"/>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -25267,7 +25273,165 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
-      <c r="R446" t="inlineStr"/>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B447" t="n">
+        <v>905.2000122070312</v>
+      </c>
+      <c r="C447" t="n">
+        <v>958.7999877929688</v>
+      </c>
+      <c r="D447" t="n">
+        <v>905.2000122070312</v>
+      </c>
+      <c r="E447" t="n">
+        <v>938.9000244140625</v>
+      </c>
+      <c r="F447" t="inlineStr"/>
+      <c r="G447" t="n">
+        <v>998428</v>
+      </c>
+      <c r="H447" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I447" t="n">
+        <v>4</v>
+      </c>
+      <c r="J447" t="n">
+        <v>15</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" t="n">
+        <v>16</v>
+      </c>
+      <c r="O447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B448" t="n">
+        <v>938.9000244140625</v>
+      </c>
+      <c r="C448" t="n">
+        <v>948.9000244140625</v>
+      </c>
+      <c r="D448" t="n">
+        <v>926.1500244140625</v>
+      </c>
+      <c r="E448" t="n">
+        <v>931.9000244140625</v>
+      </c>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="n">
+        <v>190919</v>
+      </c>
+      <c r="H448" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I448" t="n">
+        <v>4</v>
+      </c>
+      <c r="J448" t="n">
+        <v>16</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" t="n">
+        <v>16</v>
+      </c>
+      <c r="O448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B449" t="n">
+        <v>931.9000244140625</v>
+      </c>
+      <c r="C449" t="n">
+        <v>943.5499877929688</v>
+      </c>
+      <c r="D449" t="n">
+        <v>922.0499877929688</v>
+      </c>
+      <c r="E449" t="n">
+        <v>934.25</v>
+      </c>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="n">
+        <v>89050</v>
+      </c>
+      <c r="H449" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I449" t="n">
+        <v>4</v>
+      </c>
+      <c r="J449" t="n">
+        <v>17</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N449" t="n">
+        <v>16</v>
+      </c>
+      <c r="O449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R449" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R449"/>
+  <dimension ref="A1:R458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25103,7 +25103,7 @@
         <v>15</v>
       </c>
       <c r="O443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P443" t="n">
         <v>0</v>
@@ -25327,7 +25327,9 @@
       <c r="Q447" t="n">
         <v>0</v>
       </c>
-      <c r="R447" t="inlineStr"/>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -25379,7 +25381,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
-      <c r="R448" t="inlineStr"/>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -25431,7 +25435,477 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
-      <c r="R449" t="inlineStr"/>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B450" t="n">
+        <v>942.7999877929688</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1075.050048828125</v>
+      </c>
+      <c r="D450" t="n">
+        <v>928.1500244140625</v>
+      </c>
+      <c r="E450" t="n">
+        <v>1011.299987792969</v>
+      </c>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="n">
+        <v>860680</v>
+      </c>
+      <c r="H450" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I450" t="n">
+        <v>4</v>
+      </c>
+      <c r="J450" t="n">
+        <v>21</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N450" t="n">
+        <v>17</v>
+      </c>
+      <c r="O450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B451" t="n">
+        <v>1031.5</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1036.900024414062</v>
+      </c>
+      <c r="D451" t="n">
+        <v>989</v>
+      </c>
+      <c r="E451" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="F451" t="inlineStr"/>
+      <c r="G451" t="n">
+        <v>341453</v>
+      </c>
+      <c r="H451" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I451" t="n">
+        <v>4</v>
+      </c>
+      <c r="J451" t="n">
+        <v>22</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N451" t="n">
+        <v>17</v>
+      </c>
+      <c r="O451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B452" t="n">
+        <v>996.1500244140625</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1003.400024414062</v>
+      </c>
+      <c r="D452" t="n">
+        <v>976.0499877929688</v>
+      </c>
+      <c r="E452" t="n">
+        <v>988.7000122070312</v>
+      </c>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="n">
+        <v>124855</v>
+      </c>
+      <c r="H452" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I452" t="n">
+        <v>4</v>
+      </c>
+      <c r="J452" t="n">
+        <v>23</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" t="n">
+        <v>17</v>
+      </c>
+      <c r="O452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B453" t="n">
+        <v>995.4500122070312</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D453" t="n">
+        <v>979.1500244140625</v>
+      </c>
+      <c r="E453" t="n">
+        <v>989.1500244140625</v>
+      </c>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="n">
+        <v>174332</v>
+      </c>
+      <c r="H453" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I453" t="n">
+        <v>4</v>
+      </c>
+      <c r="J453" t="n">
+        <v>24</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" t="n">
+        <v>17</v>
+      </c>
+      <c r="O453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B454" t="n">
+        <v>989.7999877929688</v>
+      </c>
+      <c r="C454" t="n">
+        <v>995</v>
+      </c>
+      <c r="D454" t="n">
+        <v>938.5499877929688</v>
+      </c>
+      <c r="E454" t="n">
+        <v>945</v>
+      </c>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="n">
+        <v>171203</v>
+      </c>
+      <c r="H454" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I454" t="n">
+        <v>4</v>
+      </c>
+      <c r="J454" t="n">
+        <v>25</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N454" t="n">
+        <v>17</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0</v>
+      </c>
+      <c r="R454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B455" t="n">
+        <v>945</v>
+      </c>
+      <c r="C455" t="n">
+        <v>961.5999755859375</v>
+      </c>
+      <c r="D455" t="n">
+        <v>933.5499877929688</v>
+      </c>
+      <c r="E455" t="n">
+        <v>947.5499877929688</v>
+      </c>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="n">
+        <v>157932</v>
+      </c>
+      <c r="H455" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I455" t="n">
+        <v>4</v>
+      </c>
+      <c r="J455" t="n">
+        <v>28</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" t="n">
+        <v>18</v>
+      </c>
+      <c r="O455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B456" t="n">
+        <v>958</v>
+      </c>
+      <c r="C456" t="n">
+        <v>975.9000244140625</v>
+      </c>
+      <c r="D456" t="n">
+        <v>948.5499877929688</v>
+      </c>
+      <c r="E456" t="n">
+        <v>966.5999755859375</v>
+      </c>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="n">
+        <v>95803</v>
+      </c>
+      <c r="H456" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I456" t="n">
+        <v>4</v>
+      </c>
+      <c r="J456" t="n">
+        <v>29</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N456" t="n">
+        <v>18</v>
+      </c>
+      <c r="O456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B457" t="n">
+        <v>966.7000122070312</v>
+      </c>
+      <c r="C457" t="n">
+        <v>982.3499755859375</v>
+      </c>
+      <c r="D457" t="n">
+        <v>950.25</v>
+      </c>
+      <c r="E457" t="n">
+        <v>972.0999755859375</v>
+      </c>
+      <c r="F457" t="inlineStr"/>
+      <c r="G457" t="n">
+        <v>178456</v>
+      </c>
+      <c r="H457" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I457" t="n">
+        <v>4</v>
+      </c>
+      <c r="J457" t="n">
+        <v>30</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N457" t="n">
+        <v>18</v>
+      </c>
+      <c r="O457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B458" t="n">
+        <v>974.9500122070312</v>
+      </c>
+      <c r="C458" t="n">
+        <v>986.5999755859375</v>
+      </c>
+      <c r="D458" t="n">
+        <v>952.2999877929688</v>
+      </c>
+      <c r="E458" t="n">
+        <v>966.9500122070312</v>
+      </c>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="n">
+        <v>92583</v>
+      </c>
+      <c r="H458" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I458" t="n">
+        <v>5</v>
+      </c>
+      <c r="J458" t="n">
+        <v>2</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N458" t="n">
+        <v>18</v>
+      </c>
+      <c r="O458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R458" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/KPIL.NS.xlsx
+++ b/stock_historical_data/1d/KPIL.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R458"/>
+  <dimension ref="A1:R468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="Q151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R151" t="n">
         <v>2</v>
@@ -25481,7 +25481,7 @@
         <v>17</v>
       </c>
       <c r="O450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P450" t="n">
         <v>0</v>
@@ -25489,7 +25489,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
-      <c r="R450" t="inlineStr"/>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -25541,7 +25543,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
-      <c r="R451" t="inlineStr"/>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -25593,7 +25597,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
-      <c r="R452" t="inlineStr"/>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -25645,7 +25651,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
-      <c r="R453" t="inlineStr"/>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -25697,7 +25705,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
-      <c r="R454" t="inlineStr"/>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -25749,7 +25759,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
-      <c r="R455" t="inlineStr"/>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -25801,7 +25813,9 @@
       <c r="Q456" t="n">
         <v>0</v>
       </c>
-      <c r="R456" t="inlineStr"/>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -25853,7 +25867,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
-      <c r="R457" t="inlineStr"/>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -25905,7 +25921,529 @@
       <c r="Q458" t="n">
         <v>0</v>
       </c>
-      <c r="R458" t="inlineStr"/>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B459" t="n">
+        <v>967.9500122070312</v>
+      </c>
+      <c r="C459" t="n">
+        <v>975.2999877929688</v>
+      </c>
+      <c r="D459" t="n">
+        <v>951.5999755859375</v>
+      </c>
+      <c r="E459" t="n">
+        <v>963.9500122070312</v>
+      </c>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="n">
+        <v>87312</v>
+      </c>
+      <c r="H459" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I459" t="n">
+        <v>5</v>
+      </c>
+      <c r="J459" t="n">
+        <v>5</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N459" t="n">
+        <v>19</v>
+      </c>
+      <c r="O459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B460" t="n">
+        <v>960.0999755859375</v>
+      </c>
+      <c r="C460" t="n">
+        <v>973</v>
+      </c>
+      <c r="D460" t="n">
+        <v>917.0499877929688</v>
+      </c>
+      <c r="E460" t="n">
+        <v>922.5</v>
+      </c>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="n">
+        <v>132242</v>
+      </c>
+      <c r="H460" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I460" t="n">
+        <v>5</v>
+      </c>
+      <c r="J460" t="n">
+        <v>6</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N460" t="n">
+        <v>19</v>
+      </c>
+      <c r="O460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B461" t="n">
+        <v>899</v>
+      </c>
+      <c r="C461" t="n">
+        <v>983.9000244140625</v>
+      </c>
+      <c r="D461" t="n">
+        <v>892.5</v>
+      </c>
+      <c r="E461" t="n">
+        <v>973.4500122070312</v>
+      </c>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="n">
+        <v>203584</v>
+      </c>
+      <c r="H461" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I461" t="n">
+        <v>5</v>
+      </c>
+      <c r="J461" t="n">
+        <v>7</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N461" t="n">
+        <v>19</v>
+      </c>
+      <c r="O461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P461" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B462" t="n">
+        <v>961</v>
+      </c>
+      <c r="C462" t="n">
+        <v>988.7999877929688</v>
+      </c>
+      <c r="D462" t="n">
+        <v>941</v>
+      </c>
+      <c r="E462" t="n">
+        <v>946.9000244140625</v>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="n">
+        <v>188379</v>
+      </c>
+      <c r="H462" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I462" t="n">
+        <v>5</v>
+      </c>
+      <c r="J462" t="n">
+        <v>8</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N462" t="n">
+        <v>19</v>
+      </c>
+      <c r="O462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B463" t="n">
+        <v>915</v>
+      </c>
+      <c r="C463" t="n">
+        <v>941.5499877929688</v>
+      </c>
+      <c r="D463" t="n">
+        <v>913.0999755859375</v>
+      </c>
+      <c r="E463" t="n">
+        <v>919.5999755859375</v>
+      </c>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="n">
+        <v>169595</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I463" t="n">
+        <v>5</v>
+      </c>
+      <c r="J463" t="n">
+        <v>9</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N463" t="n">
+        <v>19</v>
+      </c>
+      <c r="O463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B464" t="n">
+        <v>950</v>
+      </c>
+      <c r="C464" t="n">
+        <v>995</v>
+      </c>
+      <c r="D464" t="n">
+        <v>942.5499877929688</v>
+      </c>
+      <c r="E464" t="n">
+        <v>979.2999877929688</v>
+      </c>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="n">
+        <v>443013</v>
+      </c>
+      <c r="H464" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I464" t="n">
+        <v>5</v>
+      </c>
+      <c r="J464" t="n">
+        <v>12</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N464" t="n">
+        <v>20</v>
+      </c>
+      <c r="O464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B465" t="n">
+        <v>980</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1012.049987792969</v>
+      </c>
+      <c r="D465" t="n">
+        <v>970.8499755859375</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1003.5</v>
+      </c>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="n">
+        <v>175220</v>
+      </c>
+      <c r="H465" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I465" t="n">
+        <v>5</v>
+      </c>
+      <c r="J465" t="n">
+        <v>13</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N465" t="n">
+        <v>20</v>
+      </c>
+      <c r="O465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1025.800048828125</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1003.099975585938</v>
+      </c>
+      <c r="E466" t="n">
+        <v>1019.349975585938</v>
+      </c>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="n">
+        <v>128149</v>
+      </c>
+      <c r="H466" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I466" t="n">
+        <v>5</v>
+      </c>
+      <c r="J466" t="n">
+        <v>14</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N466" t="n">
+        <v>20</v>
+      </c>
+      <c r="O466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1070</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1021.950012207031</v>
+      </c>
+      <c r="E467" t="n">
+        <v>1061.400024414062</v>
+      </c>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="n">
+        <v>784076</v>
+      </c>
+      <c r="H467" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I467" t="n">
+        <v>5</v>
+      </c>
+      <c r="J467" t="n">
+        <v>15</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N467" t="n">
+        <v>20</v>
+      </c>
+      <c r="O467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1077.300048828125</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1135</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1069</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1093.800048828125</v>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="n">
+        <v>1100477</v>
+      </c>
+      <c r="H468" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I468" t="n">
+        <v>5</v>
+      </c>
+      <c r="J468" t="n">
+        <v>16</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N468" t="n">
+        <v>20</v>
+      </c>
+      <c r="O468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R468" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
